--- a/results/cifar100/rehearsal_0.5_cifar100.xlsx
+++ b/results/cifar100/rehearsal_0.5_cifar100.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K200"/>
+  <dimension ref="A1:K198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.46025112455925</v>
+        <v>3.452336454813459</v>
       </c>
       <c r="D3">
-        <v>3.171096324920654</v>
+        <v>3.442287921905518</v>
       </c>
       <c r="E3">
-        <v>9.65</v>
+        <v>6.81</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01568413405418396</v>
+        <v>0.01685005369186401</v>
       </c>
       <c r="J3">
-        <v>19.3</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.842855071599505</v>
+        <v>2.901307082809178</v>
       </c>
       <c r="D4">
-        <v>2.693270921707153</v>
+        <v>2.810352087020874</v>
       </c>
       <c r="E4">
-        <v>14.06</v>
+        <v>14.37</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.04882806968688965</v>
+        <v>0.04787588157653808</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.493266958051023</v>
+        <v>2.559943152739939</v>
       </c>
       <c r="D5">
-        <v>2.554265022277832</v>
+        <v>3.052769899368286</v>
       </c>
       <c r="E5">
-        <v>15.81</v>
+        <v>11.63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01346279358863831</v>
+        <v>0.0137010630607605</v>
       </c>
       <c r="J5">
-        <v>28.12</v>
+        <v>28.74</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.227079114027783</v>
+        <v>2.287406955145102</v>
       </c>
       <c r="D6">
-        <v>2.433859586715698</v>
+        <v>2.681215763092041</v>
       </c>
       <c r="E6">
-        <v>17.15</v>
+        <v>14.8</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.05579274044036865</v>
+        <v>0.05288117065429687</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.016847507088585</v>
+        <v>2.069665712592876</v>
       </c>
       <c r="D7">
-        <v>2.448036909103394</v>
+        <v>2.324748754501343</v>
       </c>
       <c r="E7">
-        <v>17.34</v>
+        <v>18.64</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.01260479602813721</v>
+        <v>0.01487853178977966</v>
       </c>
       <c r="J7">
-        <v>31.62</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.843245435605007</v>
+        <v>1.86788418757177</v>
       </c>
       <c r="D8">
-        <v>2.264146327972412</v>
+        <v>2.197934627532959</v>
       </c>
       <c r="E8">
-        <v>19.15</v>
+        <v>20.36</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.06022525444030762</v>
+        <v>0.0557804651260376</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.70337576570764</v>
+        <v>1.72600066028865</v>
       </c>
       <c r="D9">
-        <v>2.038107633590698</v>
+        <v>2.176441669464111</v>
       </c>
       <c r="E9">
-        <v>21.57</v>
+        <v>20.47</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.01187586121559143</v>
+        <v>0.01314259462356567</v>
       </c>
       <c r="J9">
-        <v>34.3</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.586605215494612</v>
+        <v>1.591979869699056</v>
       </c>
       <c r="D10">
-        <v>1.982959628105164</v>
+        <v>2.081528663635254</v>
       </c>
       <c r="E10">
-        <v>22.64</v>
+        <v>21.21</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.06059737873077393</v>
+        <v>0.0616145658493042</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.465207982907253</v>
+        <v>1.480380988754002</v>
       </c>
       <c r="D11">
-        <v>2.089103937149048</v>
+        <v>2.033421277999878</v>
       </c>
       <c r="E11">
-        <v>22.4</v>
+        <v>22.19</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01210070471763611</v>
+        <v>0.01139945220947266</v>
       </c>
       <c r="J11">
-        <v>34.68</v>
+        <v>37.28</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.363238132105465</v>
+        <v>1.36931065648003</v>
       </c>
       <c r="D12">
-        <v>1.867524385452271</v>
+        <v>1.916274785995483</v>
       </c>
       <c r="E12">
-        <v>23.77</v>
+        <v>23.06</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.06723622360229492</v>
+        <v>0.06109089107513428</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.282181768290764</v>
+        <v>1.27602393120791</v>
       </c>
       <c r="D13">
-        <v>2.08505392074585</v>
+        <v>1.930643439292908</v>
       </c>
       <c r="E13">
-        <v>23.31</v>
+        <v>24.18</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.01125139198303223</v>
+        <v>0.01077075109481812</v>
       </c>
       <c r="J13">
-        <v>38.3</v>
+        <v>40.72</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.19092648746693</v>
+        <v>1.18049025588331</v>
       </c>
       <c r="D14">
-        <v>2.395927906036377</v>
+        <v>2.233752012252808</v>
       </c>
       <c r="E14">
-        <v>20.43</v>
+        <v>21.87</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.06296330623626709</v>
+        <v>0.0614737678527832</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.095329434470793</v>
+        <v>1.101054317655817</v>
       </c>
       <c r="D15">
-        <v>2.082547426223755</v>
+        <v>2.11988091468811</v>
       </c>
       <c r="E15">
-        <v>22.06</v>
+        <v>23.54</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.0101563857793808</v>
+        <v>0.01065868000984192</v>
       </c>
       <c r="J15">
-        <v>43.14</v>
+        <v>40.94</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.001735584925761</v>
+        <v>1.005578195099282</v>
       </c>
       <c r="D16">
-        <v>2.001861333847046</v>
+        <v>2.09641432762146</v>
       </c>
       <c r="E16">
-        <v>23.41</v>
+        <v>23.43</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.06524671096801758</v>
+        <v>0.06545366859436035</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9226639993422854</v>
+        <v>0.925576130373288</v>
       </c>
       <c r="D17">
-        <v>2.606146097183228</v>
+        <v>2.008663892745972</v>
       </c>
       <c r="E17">
-        <v>20.32</v>
+        <v>24.92</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.009922865653038024</v>
+        <v>0.01032283656597137</v>
       </c>
       <c r="J17">
-        <v>45.28</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8504601447983126</v>
+        <v>0.8423982906130563</v>
       </c>
       <c r="D18">
-        <v>2.201799631118774</v>
+        <v>2.318617820739746</v>
       </c>
       <c r="E18">
-        <v>23.09</v>
+        <v>21.92</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.06783326663970947</v>
+        <v>0.06531420383453369</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7777776095719464</v>
+        <v>0.7673999129143436</v>
       </c>
       <c r="D19">
-        <v>2.122725963592529</v>
+        <v>2.110685110092163</v>
       </c>
       <c r="E19">
-        <v>24.16</v>
+        <v>24.41</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.01021919717788696</v>
+        <v>0.009946965575218202</v>
       </c>
       <c r="J19">
-        <v>44.8</v>
+        <v>44.38</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7140305669961777</v>
+        <v>0.6988962237286357</v>
       </c>
       <c r="D20">
-        <v>1.99940288066864</v>
+        <v>2.170087099075317</v>
       </c>
       <c r="E20">
-        <v>24.41</v>
+        <v>24.59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.07089652881622314</v>
+        <v>0.0680368989944458</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6158377016540122</v>
+        <v>0.6283378912284311</v>
       </c>
       <c r="D21">
-        <v>2.263923406600952</v>
+        <v>2.663764715194702</v>
       </c>
       <c r="E21">
-        <v>23.54</v>
+        <v>21.45</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.009417368268966674</v>
+        <v>0.009471045422554017</v>
       </c>
       <c r="J21">
-        <v>47.54</v>
+        <v>46.12</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.5581536517206547</v>
+        <v>0.5587345132258086</v>
       </c>
       <c r="D22">
-        <v>2.305235624313354</v>
+        <v>2.869651556015015</v>
       </c>
       <c r="E22">
-        <v>24</v>
+        <v>21.46</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.07165451354980469</v>
+        <v>0.06782091102600098</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.085663736921496</v>
+        <v>1.095687297065701</v>
       </c>
       <c r="D23">
-        <v>1.629730463027954</v>
+        <v>1.658403754234314</v>
       </c>
       <c r="E23">
-        <v>27.1</v>
+        <v>27.34</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.01015408174991608</v>
+        <v>0.009451987171173095</v>
       </c>
       <c r="J23">
-        <v>46.62</v>
+        <v>48.36</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9917743606904966</v>
+        <v>1.0002503031123</v>
       </c>
       <c r="D24">
-        <v>1.63933277130127</v>
+        <v>1.633620500564575</v>
       </c>
       <c r="E24">
-        <v>27.34</v>
+        <v>27.5</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.07321342716217041</v>
+        <v>0.07020855102539063</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9458501555223381</v>
+        <v>0.95100980153126</v>
       </c>
       <c r="D25">
-        <v>1.699569821357727</v>
+        <v>1.663384914398193</v>
       </c>
       <c r="E25">
-        <v>26.62</v>
+        <v>27.13</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.01191007947921753</v>
+        <v>0.01108209028244019</v>
       </c>
       <c r="J25">
-        <v>40.86</v>
+        <v>43.74</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9039134451773314</v>
+        <v>0.9119122518902332</v>
       </c>
       <c r="D26">
-        <v>1.773279666900635</v>
+        <v>1.682275891304016</v>
       </c>
       <c r="E26">
-        <v>26.12</v>
+        <v>27.46</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.07369406967163086</v>
+        <v>0.0749089500427246</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.858910505750538</v>
+        <v>0.8706264110793055</v>
       </c>
       <c r="D27">
-        <v>1.692783236503601</v>
+        <v>1.705942392349243</v>
       </c>
       <c r="E27">
-        <v>26.83</v>
+        <v>27.05</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.01038240911960602</v>
+        <v>0.01000227909088135</v>
       </c>
       <c r="J27">
-        <v>44.12</v>
+        <v>47.08</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.8227556078834871</v>
+        <v>0.8300391799580734</v>
       </c>
       <c r="D28">
-        <v>1.753926277160645</v>
+        <v>1.708330512046814</v>
       </c>
       <c r="E28">
-        <v>26.23</v>
+        <v>26.55</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.07330461730957032</v>
+        <v>0.07757753868103028</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.7830063679576975</v>
+        <v>0.791756897373537</v>
       </c>
       <c r="D29">
-        <v>1.786139726638794</v>
+        <v>1.740306735038757</v>
       </c>
       <c r="E29">
-        <v>26.53</v>
+        <v>27.07</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.01003396317958832</v>
+        <v>0.01006431722640991</v>
       </c>
       <c r="J29">
-        <v>46.82</v>
+        <v>46.86</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.741387990723669</v>
+        <v>0.748313879544756</v>
       </c>
       <c r="D30">
-        <v>1.765848755836487</v>
+        <v>1.737457871437073</v>
       </c>
       <c r="E30">
-        <v>26.34</v>
+        <v>26.66</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.07493822574615479</v>
+        <v>0.07173184280395507</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.7026790971249606</v>
+        <v>0.7074771460178679</v>
       </c>
       <c r="D31">
-        <v>1.814263224601746</v>
+        <v>1.801602482795715</v>
       </c>
       <c r="E31">
-        <v>25.79</v>
+        <v>26.61</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.01291627340316772</v>
+        <v>0.009785204076766968</v>
       </c>
       <c r="J31">
-        <v>40.64</v>
+        <v>49.84</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.6595407655808778</v>
+        <v>0.6676142118145935</v>
       </c>
       <c r="D32">
-        <v>1.815931677818298</v>
+        <v>1.802712917327881</v>
       </c>
       <c r="E32">
-        <v>26.32</v>
+        <v>26.14</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.08093175144195557</v>
+        <v>0.07555680484771729</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.6239340089063729</v>
+        <v>0.6306947021357781</v>
       </c>
       <c r="D33">
-        <v>1.830859303474426</v>
+        <v>1.786877036094666</v>
       </c>
       <c r="E33">
-        <v>26.21</v>
+        <v>26.5</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.01060860371589661</v>
+        <v>0.01151543984413147</v>
       </c>
       <c r="J33">
-        <v>46.18</v>
+        <v>43.84</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.9814428075224952</v>
+        <v>0.5881171738151956</v>
       </c>
       <c r="D34">
-        <v>1.625551104545593</v>
+        <v>1.815786123275757</v>
       </c>
       <c r="E34">
-        <v>27.54</v>
+        <v>26.26</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.07804288120269776</v>
+        <v>0.08042168922424317</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.9623444069803289</v>
+        <v>0.9309589061061893</v>
       </c>
       <c r="D35">
-        <v>1.621851325035095</v>
+        <v>1.61362612247467</v>
       </c>
       <c r="E35">
-        <v>27.38</v>
+        <v>27.74</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.01034743435382843</v>
+        <v>0.01023896512985229</v>
       </c>
       <c r="J35">
-        <v>48.32</v>
+        <v>48.82</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.9487898091299344</v>
+        <v>0.9148344571611523</v>
       </c>
       <c r="D36">
-        <v>1.630089640617371</v>
+        <v>1.621639132499695</v>
       </c>
       <c r="E36">
-        <v>27.56</v>
+        <v>27.7</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.07703450736999512</v>
+        <v>0.07821906204223633</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.9364639578667362</v>
+        <v>0.9029434972104773</v>
       </c>
       <c r="D37">
-        <v>1.642716288566589</v>
+        <v>1.625013470649719</v>
       </c>
       <c r="E37">
-        <v>27.36</v>
+        <v>27.77</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.009905985260009766</v>
+        <v>0.01029474132061005</v>
       </c>
       <c r="J37">
-        <v>48.82</v>
+        <v>49.18</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.9229039122573043</v>
+        <v>0.8919513911272572</v>
       </c>
       <c r="D38">
-        <v>1.633872628211975</v>
+        <v>1.633013248443604</v>
       </c>
       <c r="E38">
-        <v>27.35</v>
+        <v>27.83</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.07801152210235596</v>
+        <v>0.07860446949005127</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.9107780461817716</v>
+        <v>0.8812014402541439</v>
       </c>
       <c r="D39">
-        <v>1.639387726783752</v>
+        <v>1.626598238945007</v>
       </c>
       <c r="E39">
-        <v>27.34</v>
+        <v>27.82</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.01105959160327911</v>
+        <v>0.01315654487609863</v>
       </c>
       <c r="J39">
-        <v>47.08</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.8997726767464022</v>
+        <v>0.8694342870627885</v>
       </c>
       <c r="D40">
-        <v>1.628392934799194</v>
+        <v>1.632609963417053</v>
       </c>
       <c r="E40">
-        <v>27.6</v>
+        <v>27.67</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.07991493949890137</v>
+        <v>0.08173045959472656</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.8876020148792098</v>
+        <v>0.8609097789874119</v>
       </c>
       <c r="D41">
-        <v>1.618948817253113</v>
+        <v>1.660521984100342</v>
       </c>
       <c r="E41">
-        <v>27.46</v>
+        <v>27.71</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.01118365385532379</v>
+        <v>0.01398131303787232</v>
       </c>
       <c r="J41">
-        <v>48</v>
+        <v>42.92</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.8766013167600716</v>
+        <v>0.8490444400669199</v>
       </c>
       <c r="D42">
-        <v>1.639224648475647</v>
+        <v>1.6525639295578</v>
       </c>
       <c r="E42">
-        <v>27.43</v>
+        <v>27.64</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.08154263648986816</v>
+        <v>0.08635028839111328</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.8651335946226542</v>
+        <v>0.8370281405153528</v>
       </c>
       <c r="D43">
-        <v>1.646924138069153</v>
+        <v>1.653393626213074</v>
       </c>
       <c r="E43">
-        <v>27.49</v>
+        <v>27.62</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1639,10 +1639,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.008044172453880311</v>
+        <v>0.008048157596588135</v>
       </c>
       <c r="J43">
-        <v>54.2</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1653,13 +1653,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.8538077784850534</v>
+        <v>0.8312568801694211</v>
       </c>
       <c r="D44">
-        <v>1.630079746246338</v>
+        <v>1.64878237247467</v>
       </c>
       <c r="E44">
-        <v>27.6</v>
+        <v>27.62</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1668,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.06803256492614745</v>
+        <v>0.06821817569732666</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.8429092590787769</v>
+        <v>0.8172866881421182</v>
       </c>
       <c r="D45">
-        <v>1.667425394058228</v>
+        <v>1.64357328414917</v>
       </c>
       <c r="E45">
-        <v>27.44</v>
+        <v>27.48</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1697,10 +1697,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.008012785243988038</v>
+        <v>0.007971962714195251</v>
       </c>
       <c r="J45">
-        <v>54.68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1711,13 +1711,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.8348225054487718</v>
+        <v>0.9096707401022447</v>
       </c>
       <c r="D46">
-        <v>1.673956871032715</v>
+        <v>1.60750150680542</v>
       </c>
       <c r="E46">
-        <v>27.48</v>
+        <v>27.75</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -1726,7 +1726,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.06907040901184082</v>
+        <v>0.06852386112213135</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.8218027543177647</v>
+        <v>0.9046986308773007</v>
       </c>
       <c r="D47">
-        <v>1.669784069061279</v>
+        <v>1.621446251869202</v>
       </c>
       <c r="E47">
-        <v>27.27</v>
+        <v>27.84</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1755,10 +1755,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.008208377861976623</v>
+        <v>0.008018050575256348</v>
       </c>
       <c r="J47">
-        <v>53.24</v>
+        <v>54.26</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1769,13 +1769,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.8113733751583944</v>
+        <v>0.9027509647133076</v>
       </c>
       <c r="D48">
-        <v>1.658335328102112</v>
+        <v>1.605113744735718</v>
       </c>
       <c r="E48">
-        <v>27.27</v>
+        <v>27.74</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -1784,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.06994531135559082</v>
+        <v>0.06863191204071045</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1798,13 +1798,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.8029641345538924</v>
+        <v>0.8998534747984557</v>
       </c>
       <c r="D49">
-        <v>1.682722687721252</v>
+        <v>1.606144070625305</v>
       </c>
       <c r="E49">
-        <v>27.17</v>
+        <v>27.82</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1813,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.008670211458206177</v>
+        <v>0.008098908638954162</v>
       </c>
       <c r="J49">
-        <v>52.24</v>
+        <v>54.92</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1827,13 +1827,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.7899885056293117</v>
+        <v>0.8985142934638842</v>
       </c>
       <c r="D50">
-        <v>1.667479038238525</v>
+        <v>1.587037920951843</v>
       </c>
       <c r="E50">
-        <v>27.35</v>
+        <v>27.81</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -1842,7 +1842,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.06923715839385987</v>
+        <v>0.06909025573730469</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.7768531309819855</v>
+        <v>0.8914868747238565</v>
       </c>
       <c r="D51">
-        <v>1.66121506690979</v>
+        <v>1.607853293418884</v>
       </c>
       <c r="E51">
-        <v>27.16</v>
+        <v>27.71</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1871,10 +1871,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.008308667469024658</v>
+        <v>0.008231069421768189</v>
       </c>
       <c r="J51">
-        <v>53.66</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.8704043711181235</v>
+        <v>0.8922811440661945</v>
       </c>
       <c r="D52">
-        <v>1.621511220932007</v>
+        <v>1.620855450630188</v>
       </c>
       <c r="E52">
-        <v>27.57</v>
+        <v>27.77</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -1900,7 +1900,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.07044650802612305</v>
+        <v>0.06959444808959961</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.8674247797611541</v>
+        <v>0.8905776222195245</v>
       </c>
       <c r="D53">
-        <v>1.619443655014038</v>
+        <v>1.624059557914734</v>
       </c>
       <c r="E53">
-        <v>27.63</v>
+        <v>27.84</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1929,10 +1929,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.008605704832077026</v>
+        <v>0.008380874109268188</v>
       </c>
       <c r="J53">
-        <v>52.46</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -1943,13 +1943,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.8628867305485548</v>
+        <v>0.8883858011887137</v>
       </c>
       <c r="D54">
-        <v>1.648737072944641</v>
+        <v>1.622060656547546</v>
       </c>
       <c r="E54">
-        <v>27.52</v>
+        <v>27.74</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -1958,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.07169688262939453</v>
+        <v>0.07071785793304443</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1972,13 +1972,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.8613338011555967</v>
+        <v>0.8835646852982783</v>
       </c>
       <c r="D55">
-        <v>1.645149350166321</v>
+        <v>1.604394793510437</v>
       </c>
       <c r="E55">
-        <v>27.59</v>
+        <v>27.72</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1987,10 +1987,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.008569131541252136</v>
+        <v>0.008287808299064637</v>
       </c>
       <c r="J55">
-        <v>53.06</v>
+        <v>54.14</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2001,13 +2001,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.8594237481598306</v>
+        <v>0.8811706948069344</v>
       </c>
       <c r="D56">
-        <v>1.635966300964355</v>
+        <v>1.619242548942566</v>
       </c>
       <c r="E56">
-        <v>27.49</v>
+        <v>27.8</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -2016,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.07227417793273926</v>
+        <v>0.07071186771392822</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2030,13 +2030,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.8583963423703624</v>
+        <v>0.8808086709638613</v>
       </c>
       <c r="D57">
-        <v>1.640919327735901</v>
+        <v>1.623740673065186</v>
       </c>
       <c r="E57">
-        <v>27.54</v>
+        <v>27.82</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2045,10 +2045,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.008572162246704101</v>
+        <v>0.008425505065917969</v>
       </c>
       <c r="J57">
-        <v>52.68</v>
+        <v>53.32</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2059,13 +2059,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.8555832310060484</v>
+        <v>0.880573071737205</v>
       </c>
       <c r="D58">
-        <v>1.646025776863098</v>
+        <v>1.625145196914673</v>
       </c>
       <c r="E58">
-        <v>27.47</v>
+        <v>27.76</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -2074,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.07205527362823487</v>
+        <v>0.07059600067138672</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2088,13 +2088,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.8540899827417019</v>
+        <v>0.8745322770777002</v>
       </c>
       <c r="D59">
-        <v>1.654669880867004</v>
+        <v>1.626986145973206</v>
       </c>
       <c r="E59">
-        <v>27.45</v>
+        <v>27.8</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2103,10 +2103,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.008860518097877502</v>
+        <v>0.008654202699661256</v>
       </c>
       <c r="J59">
-        <v>51.58</v>
+        <v>53.22</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2117,13 +2117,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.8488178195151608</v>
+        <v>0.8729824745549565</v>
       </c>
       <c r="D60">
-        <v>1.643056750297546</v>
+        <v>1.597621560096741</v>
       </c>
       <c r="E60">
-        <v>27.51</v>
+        <v>27.72</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.07236153659820557</v>
+        <v>0.07302659072875976</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.8486716800031409</v>
+        <v>0.8926762421574213</v>
       </c>
       <c r="D61">
-        <v>1.644289612770081</v>
+        <v>1.613766312599182</v>
       </c>
       <c r="E61">
-        <v>27.37</v>
+        <v>27.65</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2161,10 +2161,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.008791343426704406</v>
+        <v>0.008715438723564149</v>
       </c>
       <c r="J61">
-        <v>52.64</v>
+        <v>52.28</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2175,13 +2175,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.8681589143466105</v>
+        <v>0.8930434885278212</v>
       </c>
       <c r="D62">
-        <v>1.627677440643311</v>
+        <v>1.624011874198914</v>
       </c>
       <c r="E62">
-        <v>27.53</v>
+        <v>27.83</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -2190,7 +2190,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.07325872631072998</v>
+        <v>0.07226957321166992</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.8674546195342477</v>
+        <v>0.8927838712666942</v>
       </c>
       <c r="D63">
-        <v>1.642635107040405</v>
+        <v>1.623410224914551</v>
       </c>
       <c r="E63">
-        <v>27.51</v>
+        <v>27.8</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2219,10 +2219,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.008787713670730592</v>
+        <v>0.008721295785903931</v>
       </c>
       <c r="J63">
-        <v>52.42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2233,13 +2233,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.8652119726206349</v>
+        <v>0.8908479572397418</v>
       </c>
       <c r="D64">
-        <v>1.621534824371338</v>
+        <v>1.622705936431885</v>
       </c>
       <c r="E64">
-        <v>27.67</v>
+        <v>27.77</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -2248,7 +2248,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.07283079071044922</v>
+        <v>0.07348654098510742</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.8681548095382421</v>
+        <v>0.891777943193385</v>
       </c>
       <c r="D65">
-        <v>1.626694202423096</v>
+        <v>1.609703421592712</v>
       </c>
       <c r="E65">
-        <v>27.58</v>
+        <v>27.68</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2277,10 +2277,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.007937167382240295</v>
+        <v>0.008903397917747498</v>
       </c>
       <c r="J65">
-        <v>55.08</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2291,13 +2291,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.8687968881784287</v>
+        <v>0.8880641201956082</v>
       </c>
       <c r="D66">
-        <v>1.640742540359497</v>
+        <v>1.625481009483337</v>
       </c>
       <c r="E66">
-        <v>27.55</v>
+        <v>27.64</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.06837583065032959</v>
+        <v>0.07311930294036866</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.8670423336788616</v>
+        <v>0.8892176689299862</v>
       </c>
       <c r="D67">
-        <v>1.635229229927063</v>
+        <v>1.616259574890137</v>
       </c>
       <c r="E67">
-        <v>27.55</v>
+        <v>27.83</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2335,10 +2335,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.007939695048332215</v>
+        <v>0.007859436535835266</v>
       </c>
       <c r="J67">
-        <v>54.76</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2349,13 +2349,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.8642152521462567</v>
+        <v>0.8912701559277763</v>
       </c>
       <c r="D68">
-        <v>1.656038045883179</v>
+        <v>1.617372393608093</v>
       </c>
       <c r="E68">
-        <v>27.59</v>
+        <v>27.87</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -2364,7 +2364,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.06869841022491455</v>
+        <v>0.06849256687164307</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.865215100018324</v>
+        <v>0.8892451598580959</v>
       </c>
       <c r="D69">
-        <v>1.640926122665405</v>
+        <v>1.621536135673523</v>
       </c>
       <c r="E69">
-        <v>27.54</v>
+        <v>27.82</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.007957520723342895</v>
+        <v>0.007875735211372376</v>
       </c>
       <c r="J69">
-        <v>55.12</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2407,13 +2407,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.8636985131069622</v>
+        <v>0.8877402760286247</v>
       </c>
       <c r="D70">
-        <v>1.657991290092468</v>
+        <v>1.615781307220459</v>
       </c>
       <c r="E70">
-        <v>27.59</v>
+        <v>27.71</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -2422,7 +2422,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.06862820014953613</v>
+        <v>0.06843409214019776</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2436,13 +2436,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.8627940806667361</v>
+        <v>0.8905509979324003</v>
       </c>
       <c r="D71">
-        <v>1.651919960975647</v>
+        <v>1.607070684432983</v>
       </c>
       <c r="E71">
-        <v>27.54</v>
+        <v>27.84</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2451,10 +2451,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.007977852559089661</v>
+        <v>0.007879240918159485</v>
       </c>
       <c r="J71">
-        <v>54.72</v>
+        <v>55.54</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2465,13 +2465,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.8688538005921693</v>
+        <v>0.8924642284359552</v>
       </c>
       <c r="D72">
-        <v>1.625411868095398</v>
+        <v>1.615376114845276</v>
       </c>
       <c r="E72">
-        <v>27.48</v>
+        <v>27.76</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -2480,7 +2480,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.06885514640808106</v>
+        <v>0.06872699737548828</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.8692740956238941</v>
+        <v>0.8949709745634974</v>
       </c>
       <c r="D73">
-        <v>1.646660923957825</v>
+        <v>1.612972497940063</v>
       </c>
       <c r="E73">
-        <v>27.54</v>
+        <v>27.84</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2509,10 +2509,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.007974255323410034</v>
+        <v>0.007904073667526245</v>
       </c>
       <c r="J73">
-        <v>54.7</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2523,13 +2523,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.8671056411962593</v>
+        <v>0.8958266609537918</v>
       </c>
       <c r="D74">
-        <v>1.645082712173462</v>
+        <v>1.625782132148743</v>
       </c>
       <c r="E74">
-        <v>27.52</v>
+        <v>27.66</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -2538,7 +2538,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.06896805152893067</v>
+        <v>0.06893008556365966</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.8695269812524846</v>
+        <v>0.8931758656965948</v>
       </c>
       <c r="D75">
-        <v>1.646470069885254</v>
+        <v>1.639777660369873</v>
       </c>
       <c r="E75">
-        <v>27.47</v>
+        <v>27.85</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2567,10 +2567,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.008002377915382386</v>
+        <v>0.00792358148097992</v>
       </c>
       <c r="J75">
-        <v>54.68</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2581,13 +2581,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.8695704536100405</v>
+        <v>0.8906373318317717</v>
       </c>
       <c r="D76">
-        <v>1.63947582244873</v>
+        <v>1.612571358680725</v>
       </c>
       <c r="E76">
-        <v>27.46</v>
+        <v>27.74</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -2596,7 +2596,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.06913457126617431</v>
+        <v>0.06901586456298828</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2610,13 +2610,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.8687210083007812</v>
+        <v>0.8930571896839986</v>
       </c>
       <c r="D77">
-        <v>1.648189425468445</v>
+        <v>1.616786599159241</v>
       </c>
       <c r="E77">
-        <v>27.45</v>
+        <v>27.7</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2625,10 +2625,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.007993939065933228</v>
+        <v>0.007936841988563538</v>
       </c>
       <c r="J77">
-        <v>55.2</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2639,13 +2639,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.8678533197504229</v>
+        <v>0.890992334986155</v>
       </c>
       <c r="D78">
-        <v>1.635250926017761</v>
+        <v>1.614563226699829</v>
       </c>
       <c r="E78">
-        <v>27.69</v>
+        <v>27.73</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -2654,7 +2654,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.06914123096466064</v>
+        <v>0.06884080619812012</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2668,13 +2668,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.8673767632087775</v>
+        <v>0.8920066187867021</v>
       </c>
       <c r="D79">
-        <v>1.645410418510437</v>
+        <v>1.632079124450684</v>
       </c>
       <c r="E79">
-        <v>27.52</v>
+        <v>27.68</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2683,10 +2683,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.008024169540405274</v>
+        <v>0.007942251658439637</v>
       </c>
       <c r="J79">
-        <v>54.92</v>
+        <v>55.42</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2697,13 +2697,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.8690941439265698</v>
+        <v>0.8919595675130861</v>
       </c>
       <c r="D80">
-        <v>1.633350968360901</v>
+        <v>1.628998041152954</v>
       </c>
       <c r="E80">
-        <v>27.57</v>
+        <v>27.77</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -2712,7 +2712,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.0695806842803955</v>
+        <v>0.06935314884185791</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.8661210114977002</v>
+        <v>0.8919196719616915</v>
       </c>
       <c r="D81">
-        <v>1.647840976715088</v>
+        <v>1.616179466247559</v>
       </c>
       <c r="E81">
-        <v>27.48</v>
+        <v>27.68</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2741,10 +2741,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.008043442106246948</v>
+        <v>0.007950724720954896</v>
       </c>
       <c r="J81">
-        <v>54.86</v>
+        <v>55.28</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2755,13 +2755,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.8697535000016204</v>
+        <v>0.8922113681261519</v>
       </c>
       <c r="D82">
-        <v>1.630715370178223</v>
+        <v>1.61543607711792</v>
       </c>
       <c r="E82">
-        <v>27.49</v>
+        <v>27.84</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -2770,7 +2770,7 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.06931393527984619</v>
+        <v>0.06942709255218506</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -2784,13 +2784,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.868351332909238</v>
+        <v>0.8915991081600696</v>
       </c>
       <c r="D83">
-        <v>1.639469027519226</v>
+        <v>1.616871237754822</v>
       </c>
       <c r="E83">
-        <v>27.54</v>
+        <v>27.69</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2799,10 +2799,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.008044223809242249</v>
+        <v>0.007971648859977722</v>
       </c>
       <c r="J83">
-        <v>54.98</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2813,13 +2813,13 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.8694311111374239</v>
+        <v>0.8949400212912433</v>
       </c>
       <c r="D84">
-        <v>1.65596878528595</v>
+        <v>1.602526187896729</v>
       </c>
       <c r="E84">
-        <v>27.44</v>
+        <v>27.76</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -2828,7 +2828,7 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.06975299968719482</v>
+        <v>0.06944101238250733</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.8699580019554206</v>
+        <v>0.8919196308186624</v>
       </c>
       <c r="D85">
-        <v>1.64456033706665</v>
+        <v>1.629619717597961</v>
       </c>
       <c r="E85">
-        <v>27.54</v>
+        <v>27.74</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.008055429482460023</v>
+        <v>0.007989646863937378</v>
       </c>
       <c r="J85">
-        <v>55.2</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2871,13 +2871,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.8689972067301253</v>
+        <v>0.894224544014551</v>
       </c>
       <c r="D86">
-        <v>1.665588736534119</v>
+        <v>1.62237536907196</v>
       </c>
       <c r="E86">
-        <v>27.51</v>
+        <v>27.79</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -2886,7 +2886,7 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.06955652446746827</v>
+        <v>0.06986056747436524</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -2900,13 +2900,13 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.8707773094683622</v>
+        <v>0.8922196215232917</v>
       </c>
       <c r="D87">
-        <v>1.637118220329285</v>
+        <v>1.608951330184937</v>
       </c>
       <c r="E87">
-        <v>27.51</v>
+        <v>27.81</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2915,10 +2915,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.008080085253715515</v>
+        <v>0.008010112237930299</v>
       </c>
       <c r="J87">
-        <v>54.88</v>
+        <v>54.96</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2929,13 +2929,13 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.8690325174711447</v>
+        <v>0.8962654777332745</v>
       </c>
       <c r="D88">
-        <v>1.632367134094238</v>
+        <v>1.620065927505493</v>
       </c>
       <c r="E88">
-        <v>27.45</v>
+        <v>27.76</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -2944,7 +2944,7 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.06991574726104736</v>
+        <v>0.06975551319122314</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.8666877314052751</v>
+        <v>0.8914666708591765</v>
       </c>
       <c r="D89">
-        <v>1.626213908195496</v>
+        <v>1.621316075325012</v>
       </c>
       <c r="E89">
-        <v>27.47</v>
+        <v>27.83</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2973,10 +2973,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.008091947650909424</v>
+        <v>0.007856268453598023</v>
       </c>
       <c r="J89">
-        <v>54.96</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2987,13 +2987,13 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.870047836177117</v>
+        <v>0.8921859459539431</v>
       </c>
       <c r="D90">
-        <v>1.63426685333252</v>
+        <v>1.621536135673523</v>
       </c>
       <c r="E90">
-        <v>27.52</v>
+        <v>27.83</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -3002,7 +3002,7 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.070521923828125</v>
+        <v>0.06847548179626464</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -3016,13 +3016,13 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.8695719811768658</v>
+        <v>0.8928817995881613</v>
       </c>
       <c r="D91">
-        <v>1.638357043266296</v>
+        <v>1.606812953948975</v>
       </c>
       <c r="E91">
-        <v>27.62</v>
+        <v>27.82</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3031,10 +3031,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.008118304300308228</v>
+        <v>0.007861446332931519</v>
       </c>
       <c r="J91">
-        <v>54.54</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3045,13 +3045,13 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.8689390420913696</v>
+        <v>0.8922986103370126</v>
       </c>
       <c r="D92">
-        <v>1.625097513198853</v>
+        <v>1.624017953872681</v>
       </c>
       <c r="E92">
-        <v>27.59</v>
+        <v>27.72</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -3060,7 +3060,7 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.07066128005981445</v>
+        <v>0.06862498188018799</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.8690457802958194</v>
+        <v>0.8908404169884403</v>
       </c>
       <c r="D93">
-        <v>1.626589894294739</v>
+        <v>1.622958183288574</v>
       </c>
       <c r="E93">
-        <v>27.48</v>
+        <v>27.69</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3089,10 +3089,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>0.008131714272499084</v>
+        <v>0.007865502977371215</v>
       </c>
       <c r="J93">
-        <v>54.54</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3103,13 +3103,13 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.8678582764304845</v>
+        <v>0.8912537535734936</v>
       </c>
       <c r="D94">
-        <v>1.638892292976379</v>
+        <v>1.600389719009399</v>
       </c>
       <c r="E94">
-        <v>27.49</v>
+        <v>27.84</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -3118,7 +3118,7 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.07027763347625732</v>
+        <v>0.06864118919372558</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -3132,13 +3132,13 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.8679506040252416</v>
+        <v>0.8922275826994297</v>
       </c>
       <c r="D95">
-        <v>1.633994579315186</v>
+        <v>1.613276124000549</v>
       </c>
       <c r="E95">
-        <v>27.54</v>
+        <v>27.83</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3147,10 +3147,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>0.00814672019481659</v>
+        <v>0.007874443268775941</v>
       </c>
       <c r="J95">
-        <v>54.34</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3161,13 +3161,13 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>0.871743674826833</v>
+        <v>0.8940550046684468</v>
       </c>
       <c r="D96">
-        <v>1.634250283241272</v>
+        <v>1.618019223213196</v>
       </c>
       <c r="E96">
-        <v>27.6</v>
+        <v>27.75</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -3176,7 +3176,7 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>0.0709612117767334</v>
+        <v>0.06863575096130371</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -3190,13 +3190,13 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>0.8717529172390963</v>
+        <v>0.893643246815268</v>
       </c>
       <c r="D97">
-        <v>1.627065420150757</v>
+        <v>1.618665456771851</v>
       </c>
       <c r="E97">
-        <v>27.47</v>
+        <v>27.75</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3205,10 +3205,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>0.008167175912857056</v>
+        <v>0.007870200872421265</v>
       </c>
       <c r="J97">
-        <v>54.7</v>
+        <v>55.62</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3219,13 +3219,13 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>0.867772615061397</v>
+        <v>0.8917418016796619</v>
       </c>
       <c r="D98">
-        <v>1.643915295600891</v>
+        <v>1.625370502471924</v>
       </c>
       <c r="E98">
-        <v>27.43</v>
+        <v>27.78</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -3234,7 +3234,7 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>0.07088884296417236</v>
+        <v>0.06877480621337891</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -3248,13 +3248,13 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>0.8694408092878562</v>
+        <v>0.8942100405693054</v>
       </c>
       <c r="D99">
-        <v>1.65540874004364</v>
+        <v>1.622115731239319</v>
       </c>
       <c r="E99">
-        <v>27.53</v>
+        <v>27.75</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3263,10 +3263,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>0.008176931953430175</v>
+        <v>0.007870383763313293</v>
       </c>
       <c r="J99">
-        <v>54.32</v>
+        <v>55.42</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3277,13 +3277,13 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>0.8683892852437179</v>
+        <v>0.8930022785093932</v>
       </c>
       <c r="D100">
-        <v>1.652423739433289</v>
+        <v>1.607523560523987</v>
       </c>
       <c r="E100">
-        <v>27.44</v>
+        <v>27.89</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -3292,28 +3292,13 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>0.07130544166564941</v>
+        <v>0.06861829490661621</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="B101">
-        <v>99</v>
-      </c>
-      <c r="C101">
-        <v>0.8689667793501795</v>
-      </c>
-      <c r="D101">
-        <v>1.645568490028381</v>
-      </c>
-      <c r="E101">
-        <v>27.47</v>
-      </c>
       <c r="G101">
         <v>1</v>
       </c>
@@ -3321,10 +3306,10 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>0.008013068652153016</v>
+        <v>0.007874086380004882</v>
       </c>
       <c r="J101">
-        <v>55.14</v>
+        <v>55.54</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3335,7 +3320,7 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>0.06953996353149414</v>
+        <v>0.06881552085876465</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -3349,10 +3334,10 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>0.008010035347938538</v>
+        <v>0.007879679369926453</v>
       </c>
       <c r="J103">
-        <v>55.26</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3363,7 +3348,7 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>0.0694884391784668</v>
+        <v>0.06895959720611572</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -3377,10 +3362,10 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>0.008026122379302978</v>
+        <v>0.007879410457611084</v>
       </c>
       <c r="J105">
-        <v>55.04</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3391,7 +3376,7 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>0.06974072399139404</v>
+        <v>0.06868770217895508</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -3405,10 +3390,10 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>0.008016456127166748</v>
+        <v>0.007882045960426331</v>
       </c>
       <c r="J107">
-        <v>55.18</v>
+        <v>55.44</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3419,7 +3404,7 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>0.06958258304595948</v>
+        <v>0.06866874523162841</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -3433,10 +3418,10 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>0.008022160172462463</v>
+        <v>0.007888246178627014</v>
       </c>
       <c r="J109">
-        <v>54.98</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3447,7 +3432,7 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>0.06980485782623291</v>
+        <v>0.06892296905517578</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -3461,10 +3446,10 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>0.008027854847908021</v>
+        <v>0.007889681243896484</v>
       </c>
       <c r="J111">
-        <v>55.08</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3475,7 +3460,7 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>0.06997321681976318</v>
+        <v>0.06899671211242676</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -3489,10 +3474,10 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>0.008037653136253356</v>
+        <v>0.007900516939163209</v>
       </c>
       <c r="J113">
-        <v>54.94</v>
+        <v>55.52</v>
       </c>
     </row>
     <row r="114" spans="7:10">
@@ -3503,7 +3488,7 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>0.07001924972534179</v>
+        <v>0.06910358963012696</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -3517,10 +3502,10 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>0.008028524661064148</v>
+        <v>0.007892163395881653</v>
       </c>
       <c r="J115">
-        <v>54.9</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="116" spans="7:10">
@@ -3531,7 +3516,7 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>0.06987435283660888</v>
+        <v>0.06907671089172364</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -3545,10 +3530,10 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>0.008038711190223693</v>
+        <v>0.007894573259353638</v>
       </c>
       <c r="J117">
-        <v>55.02</v>
+        <v>55.44</v>
       </c>
     </row>
     <row r="118" spans="7:10">
@@ -3559,7 +3544,7 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>0.06994534416198731</v>
+        <v>0.06911983242034912</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -3573,10 +3558,10 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>0.008041533064842224</v>
+        <v>0.007866588377952576</v>
       </c>
       <c r="J119">
-        <v>54.74</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="120" spans="7:10">
@@ -3587,7 +3572,7 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>0.07021540794372559</v>
+        <v>0.06863051223754883</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -3601,10 +3586,10 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>0.00802875201702118</v>
+        <v>0.007868236041069031</v>
       </c>
       <c r="J121">
-        <v>55.06</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="122" spans="7:10">
@@ -3615,7 +3600,7 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>0.06982366619110107</v>
+        <v>0.06874773559570313</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -3629,10 +3614,10 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>0.008015602540969849</v>
+        <v>0.007869620656967164</v>
       </c>
       <c r="J123">
-        <v>55.02</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="124" spans="7:10">
@@ -3643,7 +3628,7 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>0.06952309074401855</v>
+        <v>0.06880964889526367</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -3657,10 +3642,10 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>0.008007229495048522</v>
+        <v>0.007868866562843323</v>
       </c>
       <c r="J125">
-        <v>55.34</v>
+        <v>55.54</v>
       </c>
     </row>
     <row r="126" spans="7:10">
@@ -3671,7 +3656,7 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>0.06956479701995849</v>
+        <v>0.06871794281005859</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -3685,10 +3670,10 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>0.008013969874382019</v>
+        <v>0.007872839474678039</v>
       </c>
       <c r="J127">
-        <v>55.16</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="128" spans="7:10">
@@ -3699,7 +3684,7 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>0.06951545543670655</v>
+        <v>0.06864214382171631</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -3713,10 +3698,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>0.008014986824989318</v>
+        <v>0.007876487231254578</v>
       </c>
       <c r="J129">
-        <v>55.1</v>
+        <v>55.28</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -3727,7 +3712,7 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>0.0696437593460083</v>
+        <v>0.06887975444793701</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -3741,10 +3726,10 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>0.008014461064338684</v>
+        <v>0.007873273968696594</v>
       </c>
       <c r="J131">
-        <v>55.1</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="132" spans="7:10">
@@ -3755,7 +3740,7 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>0.06957440128326416</v>
+        <v>0.06888685340881348</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -3769,10 +3754,10 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>0.008014111304283143</v>
+        <v>0.007877520751953125</v>
       </c>
       <c r="J133">
-        <v>55.18</v>
+        <v>55.74</v>
       </c>
     </row>
     <row r="134" spans="7:10">
@@ -3783,7 +3768,7 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>0.06968229370117188</v>
+        <v>0.06882000026702881</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -3797,10 +3782,10 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>0.008015487384796143</v>
+        <v>0.00787823851108551</v>
       </c>
       <c r="J135">
-        <v>55.08</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="136" spans="7:10">
@@ -3811,7 +3796,7 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>0.06974300994873046</v>
+        <v>0.06903036365509033</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -3825,10 +3810,10 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>0.00801437132358551</v>
+        <v>0.007870875954627991</v>
       </c>
       <c r="J137">
-        <v>55.18</v>
+        <v>55.42</v>
       </c>
     </row>
     <row r="138" spans="7:10">
@@ -3839,7 +3824,7 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>0.06968012065887451</v>
+        <v>0.06885168514251709</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -3853,10 +3838,10 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>0.008012601947784423</v>
+        <v>0.007866394209861755</v>
       </c>
       <c r="J139">
-        <v>55.08</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="140" spans="7:10">
@@ -3867,7 +3852,7 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>0.06978307476043701</v>
+        <v>0.06879681015014648</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -3881,10 +3866,10 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>0.008019755697250367</v>
+        <v>0.00786743414402008</v>
       </c>
       <c r="J141">
-        <v>54.96</v>
+        <v>55.52</v>
       </c>
     </row>
     <row r="142" spans="7:10">
@@ -3895,7 +3880,7 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>0.06969312019348145</v>
+        <v>0.06877452220916748</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -3909,10 +3894,10 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>0.008014795160293579</v>
+        <v>0.007870803761482239</v>
       </c>
       <c r="J143">
-        <v>55.08</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="144" spans="7:10">
@@ -3923,7 +3908,7 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>0.0696308401107788</v>
+        <v>0.06888195514678955</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -3937,10 +3922,10 @@
         <v>72</v>
       </c>
       <c r="I145">
-        <v>0.008029783558845521</v>
+        <v>0.007872155642509461</v>
       </c>
       <c r="J145">
-        <v>55.04</v>
+        <v>55.32</v>
       </c>
     </row>
     <row r="146" spans="7:10">
@@ -3951,7 +3936,7 @@
         <v>72</v>
       </c>
       <c r="I146">
-        <v>0.06970964794158936</v>
+        <v>0.06863707656860352</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -3965,10 +3950,10 @@
         <v>73</v>
       </c>
       <c r="I147">
-        <v>0.008020563912391662</v>
+        <v>0.007865997624397278</v>
       </c>
       <c r="J147">
-        <v>54.94</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="148" spans="7:10">
@@ -3979,7 +3964,7 @@
         <v>73</v>
       </c>
       <c r="I148">
-        <v>0.06959675979614258</v>
+        <v>0.0687431007385254</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -3993,10 +3978,10 @@
         <v>74</v>
       </c>
       <c r="I149">
-        <v>0.0080155766248703</v>
+        <v>0.007866851234436036</v>
       </c>
       <c r="J149">
-        <v>54.92</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="150" spans="7:10">
@@ -4007,7 +3992,7 @@
         <v>74</v>
       </c>
       <c r="I150">
-        <v>0.06953402099609375</v>
+        <v>0.06876820983886718</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -4021,10 +4006,10 @@
         <v>75</v>
       </c>
       <c r="I151">
-        <v>0.008014777588844299</v>
+        <v>0.007875748991966247</v>
       </c>
       <c r="J151">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="152" spans="7:10">
@@ -4035,7 +4020,7 @@
         <v>75</v>
       </c>
       <c r="I152">
-        <v>0.06969924983978272</v>
+        <v>0.06880871086120606</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -4049,10 +4034,10 @@
         <v>76</v>
       </c>
       <c r="I153">
-        <v>0.008015484428405762</v>
+        <v>0.007869921231269837</v>
       </c>
       <c r="J153">
-        <v>55.38</v>
+        <v>55.46</v>
       </c>
     </row>
     <row r="154" spans="7:10">
@@ -4063,7 +4048,7 @@
         <v>76</v>
       </c>
       <c r="I154">
-        <v>0.06938673515319824</v>
+        <v>0.06890329666137696</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -4077,10 +4062,10 @@
         <v>77</v>
       </c>
       <c r="I155">
-        <v>0.008016207242012024</v>
+        <v>0.00786975793838501</v>
       </c>
       <c r="J155">
-        <v>55.04</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="156" spans="7:10">
@@ -4091,7 +4076,7 @@
         <v>77</v>
       </c>
       <c r="I156">
-        <v>0.06963380050659179</v>
+        <v>0.06862223224639892</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -4105,10 +4090,10 @@
         <v>78</v>
       </c>
       <c r="I157">
-        <v>0.008018747973442078</v>
+        <v>0.007867284607887269</v>
       </c>
       <c r="J157">
-        <v>55.14</v>
+        <v>55.54</v>
       </c>
     </row>
     <row r="158" spans="7:10">
@@ -4119,7 +4104,7 @@
         <v>78</v>
       </c>
       <c r="I158">
-        <v>0.06974638175964355</v>
+        <v>0.06857106380462646</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -4133,10 +4118,10 @@
         <v>79</v>
       </c>
       <c r="I159">
-        <v>0.008015705561637878</v>
+        <v>0.007866474151611328</v>
       </c>
       <c r="J159">
-        <v>54.96</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="160" spans="7:10">
@@ -4147,7 +4132,7 @@
         <v>79</v>
       </c>
       <c r="I160">
-        <v>0.06960679588317871</v>
+        <v>0.06871332740783691</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -4161,10 +4146,10 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>0.008021205163002015</v>
+        <v>0.007871719932556153</v>
       </c>
       <c r="J161">
-        <v>54.98</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="162" spans="7:10">
@@ -4175,7 +4160,7 @@
         <v>80</v>
       </c>
       <c r="I162">
-        <v>0.06962621326446533</v>
+        <v>0.0689592939376831</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -4189,10 +4174,10 @@
         <v>81</v>
       </c>
       <c r="I163">
-        <v>0.008024536538124084</v>
+        <v>0.007869025826454162</v>
       </c>
       <c r="J163">
-        <v>55.08</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="164" spans="7:10">
@@ -4203,7 +4188,7 @@
         <v>81</v>
       </c>
       <c r="I164">
-        <v>0.06969834728240967</v>
+        <v>0.06861502532958984</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -4217,10 +4202,10 @@
         <v>82</v>
       </c>
       <c r="I165">
-        <v>0.008019545269012451</v>
+        <v>0.007865462398529052</v>
       </c>
       <c r="J165">
-        <v>54.88</v>
+        <v>55.52</v>
       </c>
     </row>
     <row r="166" spans="7:10">
@@ -4231,7 +4216,7 @@
         <v>82</v>
       </c>
       <c r="I166">
-        <v>0.06965768089294433</v>
+        <v>0.06858066272735595</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -4245,10 +4230,10 @@
         <v>83</v>
       </c>
       <c r="I167">
-        <v>0.008025838828086853</v>
+        <v>0.007864336800575257</v>
       </c>
       <c r="J167">
-        <v>55.08</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="168" spans="7:10">
@@ -4259,7 +4244,7 @@
         <v>83</v>
       </c>
       <c r="I168">
-        <v>0.06975171623229981</v>
+        <v>0.0685658941268921</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -4273,10 +4258,10 @@
         <v>84</v>
       </c>
       <c r="I169">
-        <v>0.008019636964797974</v>
+        <v>0.007870483231544495</v>
       </c>
       <c r="J169">
-        <v>55.02</v>
+        <v>55.58</v>
       </c>
     </row>
     <row r="170" spans="7:10">
@@ -4287,7 +4272,7 @@
         <v>84</v>
       </c>
       <c r="I170">
-        <v>0.0695707670211792</v>
+        <v>0.0687045488357544</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -4301,10 +4286,10 @@
         <v>85</v>
       </c>
       <c r="I171">
-        <v>0.00801888279914856</v>
+        <v>0.007870041465759278</v>
       </c>
       <c r="J171">
-        <v>55.02</v>
+        <v>55.62</v>
       </c>
     </row>
     <row r="172" spans="7:10">
@@ -4315,7 +4300,7 @@
         <v>85</v>
       </c>
       <c r="I172">
-        <v>0.06970066013336182</v>
+        <v>0.06864875030517578</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -4329,10 +4314,10 @@
         <v>86</v>
       </c>
       <c r="I173">
-        <v>0.00802700788974762</v>
+        <v>0.007868152546882629</v>
       </c>
       <c r="J173">
-        <v>54.9</v>
+        <v>55.52</v>
       </c>
     </row>
     <row r="174" spans="7:10">
@@ -4343,7 +4328,7 @@
         <v>86</v>
       </c>
       <c r="I174">
-        <v>0.06959881362915039</v>
+        <v>0.06859409770965576</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -4357,10 +4342,10 @@
         <v>87</v>
       </c>
       <c r="I175">
-        <v>0.008022428464889526</v>
+        <v>0.00787195053100586</v>
       </c>
       <c r="J175">
-        <v>54.94</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="176" spans="7:10">
@@ -4371,7 +4356,7 @@
         <v>87</v>
       </c>
       <c r="I176">
-        <v>0.06969680614471435</v>
+        <v>0.06886828880310059</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -4385,10 +4370,10 @@
         <v>88</v>
       </c>
       <c r="I177">
-        <v>0.008020749855041504</v>
+        <v>0.007862972259521485</v>
       </c>
       <c r="J177">
-        <v>55.04</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="178" spans="7:10">
@@ -4399,7 +4384,7 @@
         <v>88</v>
       </c>
       <c r="I178">
-        <v>0.06970751152038575</v>
+        <v>0.06867211723327636</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -4413,10 +4398,10 @@
         <v>89</v>
       </c>
       <c r="I179">
-        <v>0.008021251368522645</v>
+        <v>0.007867931461334229</v>
       </c>
       <c r="J179">
-        <v>55.24</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="180" spans="7:10">
@@ -4427,7 +4412,7 @@
         <v>89</v>
       </c>
       <c r="I180">
-        <v>0.06951965656280518</v>
+        <v>0.06878164119720459</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -4441,10 +4426,10 @@
         <v>90</v>
       </c>
       <c r="I181">
-        <v>0.008022402572631836</v>
+        <v>0.007874332094192506</v>
       </c>
       <c r="J181">
-        <v>55.18</v>
+        <v>55.44</v>
       </c>
     </row>
     <row r="182" spans="7:10">
@@ -4455,7 +4440,7 @@
         <v>90</v>
       </c>
       <c r="I182">
-        <v>0.06958415107727051</v>
+        <v>0.06882610683441162</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -4469,10 +4454,10 @@
         <v>91</v>
       </c>
       <c r="I183">
-        <v>0.008026460385322572</v>
+        <v>0.007867146849632262</v>
       </c>
       <c r="J183">
-        <v>54.96</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="184" spans="7:10">
@@ -4483,7 +4468,7 @@
         <v>91</v>
       </c>
       <c r="I184">
-        <v>0.06947901401519775</v>
+        <v>0.06863605785369874</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -4497,10 +4482,10 @@
         <v>92</v>
       </c>
       <c r="I185">
-        <v>0.008020239567756653</v>
+        <v>0.007869321632385254</v>
       </c>
       <c r="J185">
-        <v>54.98</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="186" spans="7:10">
@@ -4511,7 +4496,7 @@
         <v>92</v>
       </c>
       <c r="I186">
-        <v>0.06958933124542237</v>
+        <v>0.06865770816802978</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -4525,10 +4510,10 @@
         <v>93</v>
       </c>
       <c r="I187">
-        <v>0.008023324155807495</v>
+        <v>0.007870312118530273</v>
       </c>
       <c r="J187">
-        <v>55.08</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="188" spans="7:10">
@@ -4539,7 +4524,7 @@
         <v>93</v>
       </c>
       <c r="I188">
-        <v>0.06958050575256347</v>
+        <v>0.06870466957092285</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -4553,10 +4538,10 @@
         <v>94</v>
       </c>
       <c r="I189">
-        <v>0.008025335001945496</v>
+        <v>0.007867168498039246</v>
       </c>
       <c r="J189">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="190" spans="7:10">
@@ -4567,7 +4552,7 @@
         <v>94</v>
       </c>
       <c r="I190">
-        <v>0.06987318420410156</v>
+        <v>0.06862251415252686</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -4581,10 +4566,10 @@
         <v>95</v>
       </c>
       <c r="I191">
-        <v>0.008023516201972961</v>
+        <v>0.007871522736549378</v>
       </c>
       <c r="J191">
-        <v>54.94</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="192" spans="7:10">
@@ -4595,7 +4580,7 @@
         <v>95</v>
       </c>
       <c r="I192">
-        <v>0.06973296756744385</v>
+        <v>0.06864115676879882</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -4609,10 +4594,10 @@
         <v>96</v>
       </c>
       <c r="I193">
-        <v>0.008018773245811463</v>
+        <v>0.007869080424308776</v>
       </c>
       <c r="J193">
-        <v>54.86</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="194" spans="7:10">
@@ -4623,7 +4608,7 @@
         <v>96</v>
       </c>
       <c r="I194">
-        <v>0.06939656791687011</v>
+        <v>0.06884887390136719</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -4637,10 +4622,10 @@
         <v>97</v>
       </c>
       <c r="I195">
-        <v>0.008020253539085389</v>
+        <v>0.007868168163299561</v>
       </c>
       <c r="J195">
-        <v>55.06</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="196" spans="7:10">
@@ -4651,7 +4636,7 @@
         <v>97</v>
       </c>
       <c r="I196">
-        <v>0.06976816177368164</v>
+        <v>0.0686699541091919</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -4665,10 +4650,10 @@
         <v>98</v>
       </c>
       <c r="I197">
-        <v>0.008018914771080018</v>
+        <v>0.00786866946220398</v>
       </c>
       <c r="J197">
-        <v>54.88</v>
+        <v>55.78</v>
       </c>
     </row>
     <row r="198" spans="7:10">
@@ -4679,37 +4664,9 @@
         <v>98</v>
       </c>
       <c r="I198">
-        <v>0.06961398239135742</v>
+        <v>0.06881835346221923</v>
       </c>
       <c r="J198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="7:10">
-      <c r="G199">
-        <v>1</v>
-      </c>
-      <c r="H199">
-        <v>99</v>
-      </c>
-      <c r="I199">
-        <v>0.008016786956787109</v>
-      </c>
-      <c r="J199">
-        <v>54.94</v>
-      </c>
-    </row>
-    <row r="200" spans="7:10">
-      <c r="G200">
-        <v>2</v>
-      </c>
-      <c r="H200">
-        <v>99</v>
-      </c>
-      <c r="I200">
-        <v>0.0695145170211792</v>
-      </c>
-      <c r="J200">
         <v>0</v>
       </c>
     </row>
@@ -4724,7 +4681,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K204"/>
+  <dimension ref="A1:K198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4783,13 +4740,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.648373307561028</v>
+        <v>3.63901127866034</v>
       </c>
       <c r="D3">
-        <v>2.834309339523315</v>
+        <v>3.084289312362671</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>24.93</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4798,10 +4755,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01472380723953247</v>
+        <v>0.01669850587844849</v>
       </c>
       <c r="J3">
-        <v>31.74</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4812,13 +4769,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.324802088314259</v>
+        <v>2.337591299643883</v>
       </c>
       <c r="D4">
-        <v>2.834137201309204</v>
+        <v>2.609297275543213</v>
       </c>
       <c r="E4">
-        <v>28.38</v>
+        <v>32.71</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4827,10 +4784,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.01371997766494751</v>
+        <v>0.01442827582359314</v>
       </c>
       <c r="J4">
-        <v>26.26</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4841,13 +4798,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.085191957343965</v>
+        <v>2.086618661175113</v>
       </c>
       <c r="D5">
-        <v>2.598773956298828</v>
+        <v>2.456270694732666</v>
       </c>
       <c r="E5">
-        <v>32.98</v>
+        <v>35.59</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4856,10 +4813,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.0161320493221283</v>
+        <v>0.01485380606651306</v>
       </c>
       <c r="J5">
-        <v>24.12</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4870,13 +4827,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.925075529595099</v>
+        <v>1.923432654883029</v>
       </c>
       <c r="D6">
-        <v>2.40290641784668</v>
+        <v>2.357469081878662</v>
       </c>
       <c r="E6">
-        <v>36.89</v>
+        <v>36.72</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4885,10 +4842,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.01290310101509094</v>
+        <v>0.01176519556045532</v>
       </c>
       <c r="J6">
-        <v>32.64</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4899,13 +4856,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.79981831403879</v>
+        <v>1.780979677064884</v>
       </c>
       <c r="D7">
-        <v>2.371401786804199</v>
+        <v>2.281810998916626</v>
       </c>
       <c r="E7">
-        <v>37.56999999999999</v>
+        <v>39.02</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4914,10 +4871,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.01502337980270386</v>
+        <v>0.01397442145347595</v>
       </c>
       <c r="J7">
-        <v>28.62</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4928,13 +4885,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.683031324098802</v>
+        <v>1.672514928163156</v>
       </c>
       <c r="D8">
-        <v>2.231571912765503</v>
+        <v>2.309603452682495</v>
       </c>
       <c r="E8">
-        <v>40.55</v>
+        <v>39.14</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4943,10 +4900,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.01151382627487183</v>
+        <v>0.011191765832901</v>
       </c>
       <c r="J8">
-        <v>37.34</v>
+        <v>40.06</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4957,13 +4914,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.584661992343925</v>
+        <v>1.558840525220837</v>
       </c>
       <c r="D9">
-        <v>2.320648908615112</v>
+        <v>2.48664927482605</v>
       </c>
       <c r="E9">
-        <v>39.33</v>
+        <v>36.44</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4972,10 +4929,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.01375433959960938</v>
+        <v>0.01393333988189697</v>
       </c>
       <c r="J9">
-        <v>32.14</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4986,13 +4943,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.489383013290766</v>
+        <v>1.474210110641796</v>
       </c>
       <c r="D10">
-        <v>2.335760593414307</v>
+        <v>2.491144418716431</v>
       </c>
       <c r="E10">
-        <v>38.68</v>
+        <v>37.17</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -5001,10 +4958,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.01083574509620666</v>
+        <v>0.01069826064109802</v>
       </c>
       <c r="J10">
-        <v>41.64</v>
+        <v>41.72</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5015,13 +4972,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.396009139760712</v>
+        <v>1.376311703546513</v>
       </c>
       <c r="D11">
-        <v>2.282528638839722</v>
+        <v>2.27957558631897</v>
       </c>
       <c r="E11">
-        <v>39.87</v>
+        <v>40.09</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -5030,10 +4987,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01369452757835388</v>
+        <v>0.01330796809196472</v>
       </c>
       <c r="J11">
-        <v>33.16</v>
+        <v>34.22</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5044,13 +5001,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.316067358445839</v>
+        <v>1.288184963034455</v>
       </c>
       <c r="D12">
-        <v>2.454160928726196</v>
+        <v>2.348466157913208</v>
       </c>
       <c r="E12">
-        <v>38.2</v>
+        <v>40.42</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5059,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.01055074560642242</v>
+        <v>0.01023678917884827</v>
       </c>
       <c r="J12">
-        <v>41.98</v>
+        <v>43.82</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5073,13 +5030,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.240540553479505</v>
+        <v>1.215615313081346</v>
       </c>
       <c r="D13">
-        <v>2.553440809249878</v>
+        <v>2.312753200531006</v>
       </c>
       <c r="E13">
-        <v>37.04</v>
+        <v>39.72</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5088,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.01317210454940796</v>
+        <v>0.01324753131866455</v>
       </c>
       <c r="J13">
-        <v>34.74</v>
+        <v>34.66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5102,13 +5059,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.162128320107093</v>
+        <v>1.136022144168086</v>
       </c>
       <c r="D14">
-        <v>2.497247457504272</v>
+        <v>2.552965641021729</v>
       </c>
       <c r="E14">
-        <v>39.12</v>
+        <v>37.15000000000001</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5117,10 +5074,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.009833894538879395</v>
+        <v>0.01034257662296295</v>
       </c>
       <c r="J14">
-        <v>46.36</v>
+        <v>43.62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5131,13 +5088,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.089609126720203</v>
+        <v>1.049688826651263</v>
       </c>
       <c r="D15">
-        <v>2.481553316116333</v>
+        <v>2.762116193771362</v>
       </c>
       <c r="E15">
-        <v>38.89</v>
+        <v>37.17</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -5146,10 +5103,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.01430712633132935</v>
+        <v>0.01466350908279419</v>
       </c>
       <c r="J15">
-        <v>31.88</v>
+        <v>31.22</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5160,13 +5117,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.019618627940409</v>
+        <v>0.9847611449879302</v>
       </c>
       <c r="D16">
-        <v>2.550072193145752</v>
+        <v>2.646435499191284</v>
       </c>
       <c r="E16">
-        <v>38.14</v>
+        <v>37.76</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -5175,10 +5132,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.009853064966201782</v>
+        <v>0.01104760212898254</v>
       </c>
       <c r="J16">
-        <v>46.78</v>
+        <v>41.66</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5189,13 +5146,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9599732305171221</v>
+        <v>0.9165803356283515</v>
       </c>
       <c r="D17">
-        <v>2.534347772598267</v>
+        <v>2.664891958236694</v>
       </c>
       <c r="E17">
-        <v>40.02</v>
+        <v>38.55</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -5204,10 +5161,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.01420744128227234</v>
+        <v>0.01455716891288757</v>
       </c>
       <c r="J17">
-        <v>31.88</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5218,13 +5175,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8823507936043147</v>
+        <v>0.8570084857517446</v>
       </c>
       <c r="D18">
-        <v>2.567557811737061</v>
+        <v>2.965822458267212</v>
       </c>
       <c r="E18">
-        <v>40.92</v>
+        <v>37.01</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -5233,10 +5190,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.01025321898460388</v>
+        <v>0.01092799019813538</v>
       </c>
       <c r="J18">
-        <v>45.48</v>
+        <v>42.62</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5247,13 +5204,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.375733392478446</v>
+        <v>0.7923800641968406</v>
       </c>
       <c r="D19">
-        <v>2.003249645233154</v>
+        <v>2.6552574634552</v>
       </c>
       <c r="E19">
-        <v>45.55</v>
+        <v>38.44</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -5262,10 +5219,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.01431015090942383</v>
+        <v>0.01406436829566956</v>
       </c>
       <c r="J19">
-        <v>32.54</v>
+        <v>33.38</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5276,13 +5233,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.288567855513308</v>
+        <v>0.7369978826426895</v>
       </c>
       <c r="D20">
-        <v>2.00920844078064</v>
+        <v>2.654049634933472</v>
       </c>
       <c r="E20">
-        <v>45.41</v>
+        <v>40.08</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -5291,10 +5248,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.009827532482147216</v>
+        <v>0.009803373837471008</v>
       </c>
       <c r="J20">
-        <v>47.2</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5305,13 +5262,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.240375246521989</v>
+        <v>0.6765998102856811</v>
       </c>
       <c r="D21">
-        <v>2.037009239196777</v>
+        <v>2.911030292510986</v>
       </c>
       <c r="E21">
-        <v>45.20999999999999</v>
+        <v>38.55</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -5320,10 +5277,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.01444503092765808</v>
+        <v>0.01364950070381165</v>
       </c>
       <c r="J21">
-        <v>33.06</v>
+        <v>35.12</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5334,13 +5291,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.197113702283103</v>
+        <v>1.073185001957346</v>
       </c>
       <c r="D22">
-        <v>2.062912225723267</v>
+        <v>1.959915518760681</v>
       </c>
       <c r="E22">
-        <v>44.58</v>
+        <v>46.45999999999999</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5349,10 +5306,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.01075181219577789</v>
+        <v>0.01051734628677368</v>
       </c>
       <c r="J22">
-        <v>43.34</v>
+        <v>45.72</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5363,13 +5320,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.158668086726285</v>
+        <v>0.9771125820966867</v>
       </c>
       <c r="D23">
-        <v>2.073708534240723</v>
+        <v>1.983893394470215</v>
       </c>
       <c r="E23">
-        <v>44.64</v>
+        <v>45.7</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -5378,10 +5335,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.01540259051322937</v>
+        <v>0.0143648111820221</v>
       </c>
       <c r="J23">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5392,13 +5349,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.121293868538896</v>
+        <v>0.9341958292137237</v>
       </c>
       <c r="D24">
-        <v>2.087542533874512</v>
+        <v>2.017409086227417</v>
       </c>
       <c r="E24">
-        <v>44.6</v>
+        <v>45.47</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -5407,10 +5364,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.0112782947063446</v>
+        <v>0.009884122085571288</v>
       </c>
       <c r="J24">
-        <v>42.58</v>
+        <v>47.74</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5421,13 +5378,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.083867024740524</v>
+        <v>0.8956308639966525</v>
       </c>
       <c r="D25">
-        <v>2.098541498184204</v>
+        <v>2.050963401794434</v>
       </c>
       <c r="E25">
-        <v>44.51000000000001</v>
+        <v>45.2</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -5436,10 +5393,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.01438867735862732</v>
+        <v>0.0151717218875885</v>
       </c>
       <c r="J25">
-        <v>34.64</v>
+        <v>31.92</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5450,13 +5407,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.04093196511974</v>
+        <v>0.8614648753369348</v>
       </c>
       <c r="D26">
-        <v>2.14116358757019</v>
+        <v>2.068875074386597</v>
       </c>
       <c r="E26">
-        <v>43.92</v>
+        <v>44.84</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -5465,10 +5422,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.01101851017475128</v>
+        <v>0.01180717062950134</v>
       </c>
       <c r="J26">
-        <v>43.6</v>
+        <v>42.38</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5479,13 +5436,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.005408582250042</v>
+        <v>0.822713855455613</v>
       </c>
       <c r="D27">
-        <v>2.150731801986694</v>
+        <v>2.092415571212769</v>
       </c>
       <c r="E27">
-        <v>43.56</v>
+        <v>44.52</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -5494,10 +5451,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.01499441494941711</v>
+        <v>0.01616430292129517</v>
       </c>
       <c r="J27">
-        <v>33.02</v>
+        <v>32.42</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5508,13 +5465,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9660491054580056</v>
+        <v>0.7884416410908897</v>
       </c>
       <c r="D28">
-        <v>2.162883281707764</v>
+        <v>2.097648859024048</v>
       </c>
       <c r="E28">
-        <v>43.37</v>
+        <v>44.89</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -5523,10 +5480,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.01074009783267975</v>
+        <v>0.01257927956581116</v>
       </c>
       <c r="J28">
-        <v>44.76</v>
+        <v>41.92</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5537,13 +5494,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.9318967426316977</v>
+        <v>0.7549752254457869</v>
       </c>
       <c r="D29">
-        <v>2.208160638809204</v>
+        <v>2.154423475265503</v>
       </c>
       <c r="E29">
-        <v>43.12</v>
+        <v>44.14</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -5552,10 +5509,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.01537218008041382</v>
+        <v>0.01636353273391724</v>
       </c>
       <c r="J29">
-        <v>32.6</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5566,13 +5523,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>1.268208292814401</v>
+        <v>0.7252541304340024</v>
       </c>
       <c r="D30">
-        <v>1.980977177619934</v>
+        <v>2.178310871124268</v>
       </c>
       <c r="E30">
-        <v>45.82</v>
+        <v>44.23</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -5581,10 +5538,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.01103220007419586</v>
+        <v>0.01177119016647339</v>
       </c>
       <c r="J30">
-        <v>43.68</v>
+        <v>45.04</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5595,13 +5552,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.248395488106993</v>
+        <v>0.6883698232780547</v>
       </c>
       <c r="D31">
-        <v>1.980441093444824</v>
+        <v>2.232233047485352</v>
       </c>
       <c r="E31">
-        <v>45.88</v>
+        <v>44.26000000000001</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -5610,10 +5567,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.01574951801300049</v>
+        <v>0.01652631936073303</v>
       </c>
       <c r="J31">
-        <v>32.64</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5624,13 +5581,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.235346096507191</v>
+        <v>0.654783677067277</v>
       </c>
       <c r="D32">
-        <v>1.987542629241943</v>
+        <v>2.254359722137451</v>
       </c>
       <c r="E32">
-        <v>45.89</v>
+        <v>44.08</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -5639,10 +5596,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.01042616381645203</v>
+        <v>0.01156929807662964</v>
       </c>
       <c r="J32">
-        <v>47.4</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5653,13 +5610,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.222576432679532</v>
+        <v>0.9593875595098417</v>
       </c>
       <c r="D33">
-        <v>1.988502144813538</v>
+        <v>1.941988348960876</v>
       </c>
       <c r="E33">
-        <v>45.72</v>
+        <v>46.88</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -5668,10 +5625,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.01578885431289673</v>
+        <v>0.01846482267379761</v>
       </c>
       <c r="J33">
-        <v>34.88</v>
+        <v>30.24</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5682,13 +5639,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>1.209188113198478</v>
+        <v>0.9421289337457285</v>
       </c>
       <c r="D34">
-        <v>1.988563179969788</v>
+        <v>1.954407095909119</v>
       </c>
       <c r="E34">
-        <v>45.98</v>
+        <v>46.83</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -5697,10 +5654,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.01107537705898285</v>
+        <v>0.01285357031822205</v>
       </c>
       <c r="J34">
-        <v>46.96</v>
+        <v>43.78</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5711,13 +5668,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.200513488442235</v>
+        <v>0.9265322523004205</v>
       </c>
       <c r="D35">
-        <v>1.994539141654968</v>
+        <v>1.955616235733032</v>
       </c>
       <c r="E35">
-        <v>45.77</v>
+        <v>46.52</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -5726,10 +5683,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.01175598101615906</v>
+        <v>0.01650456161499023</v>
       </c>
       <c r="J35">
-        <v>40.38</v>
+        <v>32.12</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5740,13 +5697,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.185860643372733</v>
+        <v>0.9151177194696911</v>
       </c>
       <c r="D36">
-        <v>1.998047947883606</v>
+        <v>1.962062001228333</v>
       </c>
       <c r="E36">
-        <v>45.73999999999999</v>
+        <v>46.78</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -5755,10 +5712,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.008816843795776368</v>
+        <v>0.01173454399108887</v>
       </c>
       <c r="J36">
-        <v>50.72</v>
+        <v>44.76</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -5769,13 +5726,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.174953232855486</v>
+        <v>0.9032908226611346</v>
       </c>
       <c r="D37">
-        <v>2.002725124359131</v>
+        <v>1.967400789260864</v>
       </c>
       <c r="E37">
-        <v>45.71</v>
+        <v>46.62</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5784,10 +5741,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.01186533665657043</v>
+        <v>0.01616573872566223</v>
       </c>
       <c r="J37">
-        <v>40</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -5798,13 +5755,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>1.16389521480312</v>
+        <v>0.8926541487846149</v>
       </c>
       <c r="D38">
-        <v>2.001754999160767</v>
+        <v>1.974468469619751</v>
       </c>
       <c r="E38">
-        <v>45.73</v>
+        <v>46.42</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -5813,10 +5770,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.008813496232032775</v>
+        <v>0.01180206363201141</v>
       </c>
       <c r="J38">
-        <v>50.82</v>
+        <v>45.42</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5827,13 +5784,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.152908829189617</v>
+        <v>0.8785104800963542</v>
       </c>
       <c r="D39">
-        <v>2.009702920913696</v>
+        <v>1.981689095497131</v>
       </c>
       <c r="E39">
-        <v>45.53</v>
+        <v>46.28</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -5842,10 +5799,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.012242298412323</v>
+        <v>0.01687826085090637</v>
       </c>
       <c r="J39">
-        <v>39.16</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5856,13 +5813,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.139948370894031</v>
+        <v>0.86977044753069</v>
       </c>
       <c r="D40">
-        <v>2.014873266220093</v>
+        <v>1.988674998283386</v>
       </c>
       <c r="E40">
-        <v>45.20999999999999</v>
+        <v>46.51000000000001</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -5871,10 +5828,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.008848843550682068</v>
+        <v>0.01284382710456848</v>
       </c>
       <c r="J40">
-        <v>51.26</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -5885,13 +5842,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>1.129419618457027</v>
+        <v>0.8579137223006705</v>
       </c>
       <c r="D41">
-        <v>2.019651412963867</v>
+        <v>1.995672345161438</v>
       </c>
       <c r="E41">
-        <v>45.48999999999999</v>
+        <v>46.28</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -5900,10 +5857,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.01228860082626343</v>
+        <v>0.01184023723602295</v>
       </c>
       <c r="J41">
-        <v>39.44</v>
+        <v>40.12</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -5914,13 +5871,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>1.229299057517531</v>
+        <v>0.8493611068415219</v>
       </c>
       <c r="D42">
-        <v>1.982185006141663</v>
+        <v>2.001875877380371</v>
       </c>
       <c r="E42">
-        <v>45.84</v>
+        <v>46.03</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -5929,10 +5886,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.009036495757102966</v>
+        <v>0.008608730316162109</v>
       </c>
       <c r="J42">
-        <v>49.72</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -5943,13 +5900,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>1.225779783796277</v>
+        <v>0.8405156915004437</v>
       </c>
       <c r="D43">
-        <v>1.982001662254333</v>
+        <v>2.006830215454102</v>
       </c>
       <c r="E43">
-        <v>46</v>
+        <v>46.12</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5958,10 +5915,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.01239440789222717</v>
+        <v>0.01217894277572632</v>
       </c>
       <c r="J43">
-        <v>39.4</v>
+        <v>38.62</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -5972,13 +5929,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>1.222674718975315</v>
+        <v>0.9350421601498621</v>
       </c>
       <c r="D44">
-        <v>1.984174251556396</v>
+        <v>1.946119070053101</v>
       </c>
       <c r="E44">
-        <v>45.87</v>
+        <v>46.81</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -5987,10 +5944,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.009072371959686279</v>
+        <v>0.008639800453186035</v>
       </c>
       <c r="J44">
-        <v>49.88</v>
+        <v>52.78</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -6001,13 +5958,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>1.219591613351946</v>
+        <v>0.9310542986943171</v>
       </c>
       <c r="D45">
-        <v>1.983610510826111</v>
+        <v>1.945843935012817</v>
       </c>
       <c r="E45">
-        <v>45.84</v>
+        <v>46.7</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -6016,10 +5973,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.01255289268493652</v>
+        <v>0.01234688239097595</v>
       </c>
       <c r="J45">
-        <v>39.18</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6030,13 +5987,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>1.217397161136718</v>
+        <v>0.9295674223871626</v>
       </c>
       <c r="D46">
-        <v>1.983398199081421</v>
+        <v>1.949167728424072</v>
       </c>
       <c r="E46">
-        <v>45.89</v>
+        <v>46.82</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -6045,10 +6002,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.009067672443389893</v>
+        <v>0.008699761581420898</v>
       </c>
       <c r="J46">
-        <v>50.02</v>
+        <v>52.28</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -6059,13 +6016,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>1.215111781859539</v>
+        <v>0.9249838379007824</v>
       </c>
       <c r="D47">
-        <v>1.984841585159302</v>
+        <v>1.948835134506226</v>
       </c>
       <c r="E47">
-        <v>46</v>
+        <v>46.87</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -6074,10 +6031,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.01267982559204102</v>
+        <v>0.01246060614585877</v>
       </c>
       <c r="J47">
-        <v>38.82</v>
+        <v>39.02</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -6088,13 +6045,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>1.210161189355794</v>
+        <v>0.9251845704733267</v>
       </c>
       <c r="D48">
-        <v>1.98516845703125</v>
+        <v>1.951544284820557</v>
       </c>
       <c r="E48">
-        <v>45.78</v>
+        <v>46.88</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -6103,10 +6060,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.00909296326637268</v>
+        <v>0.008905102109909057</v>
       </c>
       <c r="J48">
-        <v>50.2</v>
+        <v>51.38</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -6117,13 +6074,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>1.207526666172863</v>
+        <v>0.9200774371271303</v>
       </c>
       <c r="D49">
-        <v>1.986406207084656</v>
+        <v>1.951337337493896</v>
       </c>
       <c r="E49">
-        <v>45.94</v>
+        <v>46.8</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -6132,10 +6089,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.01294860482215881</v>
+        <v>0.01260647568702698</v>
       </c>
       <c r="J49">
-        <v>38.62</v>
+        <v>38.28</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -6146,13 +6103,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>1.204055630243742</v>
+        <v>0.9143571948864051</v>
       </c>
       <c r="D50">
-        <v>1.9853515625</v>
+        <v>1.952992677688599</v>
       </c>
       <c r="E50">
-        <v>45.91</v>
+        <v>46.79</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -6161,10 +6118,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.009299792170524597</v>
+        <v>0.008906097030639649</v>
       </c>
       <c r="J50">
-        <v>49.22</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -6175,13 +6132,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>1.201849920509835</v>
+        <v>0.9125429293107704</v>
       </c>
       <c r="D51">
-        <v>1.988328099250793</v>
+        <v>1.954696416854858</v>
       </c>
       <c r="E51">
-        <v>45.88</v>
+        <v>46.74</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -6190,10 +6147,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.01301801829338074</v>
+        <v>0.01270673508644104</v>
       </c>
       <c r="J51">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -6204,13 +6161,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>1.229734403141857</v>
+        <v>0.9103448507348462</v>
       </c>
       <c r="D52">
-        <v>1.979527950286865</v>
+        <v>1.958323240280151</v>
       </c>
       <c r="E52">
-        <v>45.90000000000001</v>
+        <v>46.73999999999999</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -6219,10 +6176,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.009349656510353089</v>
+        <v>0.009050397729873658</v>
       </c>
       <c r="J52">
-        <v>49.02</v>
+        <v>50.74</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -6233,13 +6190,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>1.227920434884066</v>
+        <v>0.906178627846509</v>
       </c>
       <c r="D53">
-        <v>1.981921553611755</v>
+        <v>1.956661462783813</v>
       </c>
       <c r="E53">
-        <v>45.95</v>
+        <v>46.84</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -6248,10 +6205,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.01328701333999634</v>
+        <v>0.01286506433486938</v>
       </c>
       <c r="J53">
-        <v>37.36</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -6262,13 +6219,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>1.226148958389576</v>
+        <v>0.9341427895444385</v>
       </c>
       <c r="D54">
-        <v>1.980097889900208</v>
+        <v>1.944487333297729</v>
       </c>
       <c r="E54">
-        <v>46.04</v>
+        <v>46.93</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -6277,10 +6234,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.009346890306472778</v>
+        <v>0.009089664340019225</v>
       </c>
       <c r="J54">
-        <v>49.38</v>
+        <v>51.68</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -6291,13 +6248,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>1.227531652831467</v>
+        <v>0.9340338294322674</v>
       </c>
       <c r="D55">
-        <v>1.985487937927246</v>
+        <v>1.942699790000916</v>
       </c>
       <c r="E55">
-        <v>45.73</v>
+        <v>46.88</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -6306,10 +6263,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.01341543073654175</v>
+        <v>0.01326938090324402</v>
       </c>
       <c r="J55">
-        <v>37.02</v>
+        <v>37.48</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -6320,13 +6277,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>1.226511564480482</v>
+        <v>0.9325074842695654</v>
       </c>
       <c r="D56">
-        <v>1.98292601108551</v>
+        <v>1.944455981254578</v>
       </c>
       <c r="E56">
-        <v>45.8</v>
+        <v>46.92</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -6335,10 +6292,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.009558995246887208</v>
+        <v>0.009234084677696227</v>
       </c>
       <c r="J56">
-        <v>49.22</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -6349,13 +6306,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>1.225280838957905</v>
+        <v>0.9326972665166008</v>
       </c>
       <c r="D57">
-        <v>1.980548024177551</v>
+        <v>1.949084043502808</v>
       </c>
       <c r="E57">
-        <v>45.77</v>
+        <v>47.02</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -6364,10 +6321,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.0116111083984375</v>
+        <v>0.01352902364730835</v>
       </c>
       <c r="J57">
-        <v>40.72</v>
+        <v>37.94</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -6378,13 +6335,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>1.221673940765787</v>
+        <v>0.933432924676929</v>
       </c>
       <c r="D58">
-        <v>1.981790065765381</v>
+        <v>1.947951912879944</v>
       </c>
       <c r="E58">
-        <v>45.79</v>
+        <v>47.03</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -6393,10 +6350,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.008743219757080077</v>
+        <v>0.009360357809066772</v>
       </c>
       <c r="J58">
-        <v>50.92</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -6407,13 +6364,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>1.221972170313435</v>
+        <v>0.9317080466704961</v>
       </c>
       <c r="D59">
-        <v>1.981194972991943</v>
+        <v>1.94854474067688</v>
       </c>
       <c r="E59">
-        <v>45.74</v>
+        <v>46.75</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -6422,10 +6379,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.01164467687606812</v>
+        <v>0.01360564041137695</v>
       </c>
       <c r="J59">
-        <v>40.56</v>
+        <v>38.18</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -6436,13 +6393,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>1.223876757734626</v>
+        <v>0.9266517807746074</v>
       </c>
       <c r="D60">
-        <v>1.981381893157959</v>
+        <v>1.943162202835083</v>
       </c>
       <c r="E60">
-        <v>45.93</v>
+        <v>46.95999999999999</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -6451,10 +6408,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.008727288603782654</v>
+        <v>0.009619117116928101</v>
       </c>
       <c r="J60">
-        <v>51.2</v>
+        <v>50.34</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -6465,13 +6422,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>1.21885503361211</v>
+        <v>0.9277206193765944</v>
       </c>
       <c r="D61">
-        <v>1.982799887657166</v>
+        <v>1.94373619556427</v>
       </c>
       <c r="E61">
-        <v>45.92</v>
+        <v>46.94</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6480,10 +6437,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.01165668792724609</v>
+        <v>0.01370525612831116</v>
       </c>
       <c r="J61">
-        <v>40.74</v>
+        <v>37.76</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -6494,13 +6451,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>1.219646736009586</v>
+        <v>0.929428535100271</v>
       </c>
       <c r="D62">
-        <v>1.982170701026917</v>
+        <v>1.947012901306152</v>
       </c>
       <c r="E62">
-        <v>45.79000000000001</v>
+        <v>46.97</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6509,10 +6466,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.008734400510787964</v>
+        <v>0.009704712724685668</v>
       </c>
       <c r="J62">
-        <v>51.04</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -6523,13 +6480,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>1.224851478486372</v>
+        <v>0.9265182794198482</v>
       </c>
       <c r="D63">
-        <v>1.983473181724548</v>
+        <v>1.944507360458374</v>
       </c>
       <c r="E63">
-        <v>45.89</v>
+        <v>46.98</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6538,10 +6495,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.01171583671569824</v>
+        <v>0.01180094702243805</v>
       </c>
       <c r="J63">
-        <v>40.46</v>
+        <v>40.36</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -6552,13 +6509,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>1.228390402342441</v>
+        <v>0.9370558868498492</v>
       </c>
       <c r="D64">
-        <v>1.981523633003235</v>
+        <v>1.943850874900818</v>
       </c>
       <c r="E64">
-        <v>45.82</v>
+        <v>47.04</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -6567,10 +6524,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.008716258215904236</v>
+        <v>0.008510897278785706</v>
       </c>
       <c r="J64">
-        <v>50.98</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -6581,13 +6538,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>1.225552965903423</v>
+        <v>0.9354645377080116</v>
       </c>
       <c r="D65">
-        <v>1.980618596076965</v>
+        <v>1.942510724067688</v>
       </c>
       <c r="E65">
-        <v>45.81</v>
+        <v>46.87</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6596,10 +6553,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.01175080516338348</v>
+        <v>0.01188416881561279</v>
       </c>
       <c r="J65">
-        <v>40.86</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -6610,13 +6567,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>1.228321145272114</v>
+        <v>0.936350732512728</v>
       </c>
       <c r="D66">
-        <v>1.982102870941162</v>
+        <v>1.946259379386902</v>
       </c>
       <c r="E66">
-        <v>45.98</v>
+        <v>46.95</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6625,10 +6582,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.008739302086830139</v>
+        <v>0.008538070511817932</v>
       </c>
       <c r="J66">
-        <v>51.1</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -6639,13 +6596,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>1.225044844065898</v>
+        <v>0.9350180629442429</v>
       </c>
       <c r="D67">
-        <v>1.981399893760681</v>
+        <v>1.942805886268616</v>
       </c>
       <c r="E67">
-        <v>45.94</v>
+        <v>47.02</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6654,10 +6611,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.01176589350700378</v>
+        <v>0.01200357332229614</v>
       </c>
       <c r="J67">
-        <v>40.68</v>
+        <v>39.84</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -6668,13 +6625,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>1.226319624122078</v>
+        <v>0.9322340685940353</v>
       </c>
       <c r="D68">
-        <v>1.983969807624817</v>
+        <v>1.94770085811615</v>
       </c>
       <c r="E68">
-        <v>45.98</v>
+        <v>46.84999999999999</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6683,10 +6640,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.008749741792678832</v>
+        <v>0.008502019572257996</v>
       </c>
       <c r="J68">
-        <v>50.86</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -6697,13 +6654,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>1.227511834110734</v>
+        <v>0.9360810112671034</v>
       </c>
       <c r="D69">
-        <v>1.980796217918396</v>
+        <v>1.942844986915588</v>
       </c>
       <c r="E69">
-        <v>45.9</v>
+        <v>46.8</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6712,10 +6669,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.01181156072616577</v>
+        <v>0.01198943467140198</v>
       </c>
       <c r="J69">
-        <v>40.3</v>
+        <v>40.08</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -6726,13 +6683,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>1.226679414687072</v>
+        <v>0.93393274277625</v>
       </c>
       <c r="D70">
-        <v>1.981863379478455</v>
+        <v>1.946289658546448</v>
       </c>
       <c r="E70">
-        <v>46.11</v>
+        <v>46.96</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6741,10 +6698,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.008742820477485657</v>
+        <v>0.008540806889533997</v>
       </c>
       <c r="J70">
-        <v>51.18</v>
+        <v>53.48</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -6755,13 +6712,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>1.224698630310375</v>
+        <v>0.9332355458355515</v>
       </c>
       <c r="D71">
-        <v>1.980669975280762</v>
+        <v>1.943782210350037</v>
       </c>
       <c r="E71">
-        <v>45.90000000000001</v>
+        <v>46.83</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6770,10 +6727,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.01188345875740051</v>
+        <v>0.012010932970047</v>
       </c>
       <c r="J71">
-        <v>40.34</v>
+        <v>39.98</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -6784,13 +6741,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>1.225375159957705</v>
+        <v>0.9351007966600227</v>
       </c>
       <c r="D72">
-        <v>1.979912042617798</v>
+        <v>1.946901082992554</v>
       </c>
       <c r="E72">
-        <v>45.71</v>
+        <v>46.92</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6799,10 +6756,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.008771894693374634</v>
+        <v>0.008561758565902709</v>
       </c>
       <c r="J72">
-        <v>51.08</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -6813,13 +6770,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>1.22577953197547</v>
+        <v>0.9332461434708544</v>
       </c>
       <c r="D73">
-        <v>1.979133605957031</v>
+        <v>1.946847081184387</v>
       </c>
       <c r="E73">
-        <v>45.81</v>
+        <v>46.92</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6828,10 +6785,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.01182563195228577</v>
+        <v>0.01206036777496338</v>
       </c>
       <c r="J73">
-        <v>40.58</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -6842,13 +6799,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>1.226669695955762</v>
+        <v>0.9359575372475845</v>
       </c>
       <c r="D74">
-        <v>1.980346441268921</v>
+        <v>1.944401025772095</v>
       </c>
       <c r="E74">
-        <v>45.96</v>
+        <v>46.86</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6857,10 +6814,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.008812321925163269</v>
+        <v>0.008572837567329407</v>
       </c>
       <c r="J74">
-        <v>50.88</v>
+        <v>53.34</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -6871,13 +6828,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>1.227057512342577</v>
+        <v>0.9348708994289827</v>
       </c>
       <c r="D75">
-        <v>1.982784032821655</v>
+        <v>1.942148923873901</v>
       </c>
       <c r="E75">
-        <v>45.88</v>
+        <v>46.94</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6886,10 +6843,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.01187494955062866</v>
+        <v>0.01207046155929565</v>
       </c>
       <c r="J75">
-        <v>40.5</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -6900,13 +6857,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>1.227631013774308</v>
+        <v>0.9356917721279979</v>
       </c>
       <c r="D76">
-        <v>1.979874491691589</v>
+        <v>1.94576108455658</v>
       </c>
       <c r="E76">
-        <v>46.06</v>
+        <v>46.91</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6915,10 +6872,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.008839541935920715</v>
+        <v>0.008605559301376343</v>
       </c>
       <c r="J76">
-        <v>50.56</v>
+        <v>52.98</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -6929,13 +6886,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>1.226646121789718</v>
+        <v>0.9360970406842655</v>
       </c>
       <c r="D77">
-        <v>1.983676075935364</v>
+        <v>1.943055868148804</v>
       </c>
       <c r="E77">
-        <v>45.82</v>
+        <v>46.9</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -6944,10 +6901,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.01198632793426514</v>
+        <v>0.01206229929924011</v>
       </c>
       <c r="J77">
-        <v>39.94</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -6958,13 +6915,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>1.227839892432534</v>
+        <v>0.9330952640115862</v>
       </c>
       <c r="D78">
-        <v>1.980687618255615</v>
+        <v>1.943859934806824</v>
       </c>
       <c r="E78">
-        <v>45.78</v>
+        <v>46.73999999999999</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -6973,10 +6930,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.008803982090950012</v>
+        <v>0.008661972880363465</v>
       </c>
       <c r="J78">
-        <v>50.48</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -6987,13 +6944,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>1.226418612976751</v>
+        <v>0.9351166317448814</v>
       </c>
       <c r="D79">
-        <v>1.983787775039673</v>
+        <v>1.943312048912048</v>
       </c>
       <c r="E79">
-        <v>45.82</v>
+        <v>47</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7002,10 +6959,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.01197306513786316</v>
+        <v>0.01214481387138367</v>
       </c>
       <c r="J79">
-        <v>40.04</v>
+        <v>39.62</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -7016,13 +6973,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>1.229477448223611</v>
+        <v>0.9347301139634037</v>
       </c>
       <c r="D80">
-        <v>1.981975913047791</v>
+        <v>1.940906167030334</v>
       </c>
       <c r="E80">
-        <v>45.76</v>
+        <v>46.98</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7031,10 +6988,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.008862774705886841</v>
+        <v>0.008683171916007995</v>
       </c>
       <c r="J80">
-        <v>50.94</v>
+        <v>52.94</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -7045,13 +7002,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>1.227261644848705</v>
+        <v>0.9366615344081405</v>
       </c>
       <c r="D81">
-        <v>1.981289744377136</v>
+        <v>1.94430947303772</v>
       </c>
       <c r="E81">
-        <v>46.03</v>
+        <v>47.03</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7060,10 +7017,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.01167895483970642</v>
+        <v>0.01229141430854797</v>
       </c>
       <c r="J81">
-        <v>40.44</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -7074,13 +7031,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>1.225082414390067</v>
+        <v>0.9344826368890571</v>
       </c>
       <c r="D82">
-        <v>1.981915950775146</v>
+        <v>1.946214556694031</v>
       </c>
       <c r="E82">
-        <v>45.91</v>
+        <v>46.95</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7089,10 +7046,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.008713492441177369</v>
+        <v>0.008705664896965027</v>
       </c>
       <c r="J82">
-        <v>51.24</v>
+        <v>52.76</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -7103,13 +7060,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>1.228206373530732</v>
+        <v>0.9359727519503712</v>
       </c>
       <c r="D83">
-        <v>1.977291464805603</v>
+        <v>1.946583867073059</v>
       </c>
       <c r="E83">
-        <v>46.06</v>
+        <v>47.19</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7118,10 +7075,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.01167923011779785</v>
+        <v>0.01228617753982544</v>
       </c>
       <c r="J83">
-        <v>40.6</v>
+        <v>39.34</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -7132,13 +7089,13 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>1.225884385362885</v>
+        <v>0.9354880596759051</v>
       </c>
       <c r="D84">
-        <v>1.980315804481506</v>
+        <v>1.94530713558197</v>
       </c>
       <c r="E84">
-        <v>45.95</v>
+        <v>46.93</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7147,10 +7104,10 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.008707049822807312</v>
+        <v>0.008749178624153137</v>
       </c>
       <c r="J84">
-        <v>51.4</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -7161,13 +7118,13 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>1.228137821135436</v>
+        <v>0.935267378239942</v>
       </c>
       <c r="D85">
-        <v>1.981136083602905</v>
+        <v>1.941709399223328</v>
       </c>
       <c r="E85">
-        <v>45.95</v>
+        <v>46.97</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7176,10 +7133,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.01165293941497803</v>
+        <v>0.0118139132976532</v>
       </c>
       <c r="J85">
-        <v>40.76</v>
+        <v>40.36</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -7190,13 +7147,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>1.227322389388225</v>
+        <v>0.9346958176624141</v>
       </c>
       <c r="D86">
-        <v>1.982684731483459</v>
+        <v>1.943534851074219</v>
       </c>
       <c r="E86">
-        <v>45.84999999999999</v>
+        <v>46.78</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7205,10 +7162,10 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.008724711275100707</v>
+        <v>0.008502839803695679</v>
       </c>
       <c r="J86">
-        <v>50.98</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -7219,13 +7176,13 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>1.22757066777472</v>
+        <v>0.9349832580639765</v>
       </c>
       <c r="D87">
-        <v>1.98087215423584</v>
+        <v>1.943399310112</v>
       </c>
       <c r="E87">
-        <v>45.95999999999999</v>
+        <v>46.87</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7234,10 +7191,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.01170430378913879</v>
+        <v>0.01186578140258789</v>
       </c>
       <c r="J87">
-        <v>40.38</v>
+        <v>40.32</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -7248,13 +7205,13 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>1.228647530431578</v>
+        <v>0.9346438198399967</v>
       </c>
       <c r="D88">
-        <v>1.980654716491699</v>
+        <v>1.941058874130249</v>
       </c>
       <c r="E88">
-        <v>46.08</v>
+        <v>47.15000000000001</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -7263,10 +7220,10 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.008704923677444458</v>
+        <v>0.008500400686264039</v>
       </c>
       <c r="J88">
-        <v>51.3</v>
+        <v>53.08</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -7277,13 +7234,13 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>1.225437673238608</v>
+        <v>0.9353776828071775</v>
       </c>
       <c r="D89">
-        <v>1.981022238731384</v>
+        <v>1.942818284034729</v>
       </c>
       <c r="E89">
-        <v>45.88</v>
+        <v>47.03</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -7292,10 +7249,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.01167293252944946</v>
+        <v>0.01185680565834045</v>
       </c>
       <c r="J89">
-        <v>40.52</v>
+        <v>40.36</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -7306,13 +7263,13 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>1.225618093676821</v>
+        <v>0.9343967540024301</v>
       </c>
       <c r="D90">
-        <v>1.983111143112183</v>
+        <v>1.944864749908447</v>
       </c>
       <c r="E90">
-        <v>45.93</v>
+        <v>47.02</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -7321,10 +7278,10 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.008726730680465698</v>
+        <v>0.008510706305503846</v>
       </c>
       <c r="J90">
-        <v>51.26</v>
+        <v>53.28</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -7335,13 +7292,13 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>1.225741969057794</v>
+        <v>0.9351343551331018</v>
       </c>
       <c r="D91">
-        <v>1.977969169616699</v>
+        <v>1.944878816604614</v>
       </c>
       <c r="E91">
-        <v>46.05</v>
+        <v>46.96</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -7350,10 +7307,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.01168099036216736</v>
+        <v>0.01182474732398987</v>
       </c>
       <c r="J91">
-        <v>40.74</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -7364,13 +7321,13 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>1.225744671370151</v>
+        <v>0.9352803187962819</v>
       </c>
       <c r="D92">
-        <v>1.983705282211304</v>
+        <v>1.944514870643616</v>
       </c>
       <c r="E92">
-        <v>45.93</v>
+        <v>46.9</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -7379,10 +7336,10 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.008732956123352051</v>
+        <v>0.008523118901252747</v>
       </c>
       <c r="J92">
-        <v>51.26</v>
+        <v>53.34</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -7393,13 +7350,13 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>1.226377574649788</v>
+        <v>0.9352662485732129</v>
       </c>
       <c r="D93">
-        <v>1.981645464897156</v>
+        <v>1.943112254142761</v>
       </c>
       <c r="E93">
-        <v>45.98</v>
+        <v>46.92</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -7408,10 +7365,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>0.0117190185546875</v>
+        <v>0.01186205830574036</v>
       </c>
       <c r="J93">
-        <v>40.52</v>
+        <v>40.36</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -7422,13 +7379,13 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>1.227679363369236</v>
+        <v>0.9341349107979318</v>
       </c>
       <c r="D94">
-        <v>1.982290029525757</v>
+        <v>1.943984985351562</v>
       </c>
       <c r="E94">
-        <v>45.91</v>
+        <v>46.94</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -7437,10 +7394,10 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.008718573117256165</v>
+        <v>0.00853286669254303</v>
       </c>
       <c r="J94">
-        <v>51.04</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -7451,13 +7408,13 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>1.226530335358614</v>
+        <v>0.9339088074554353</v>
       </c>
       <c r="D95">
-        <v>1.97877824306488</v>
+        <v>1.943490147590637</v>
       </c>
       <c r="E95">
-        <v>46.28</v>
+        <v>47.03</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -7466,10 +7423,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>0.01169307224750519</v>
+        <v>0.0118799090385437</v>
       </c>
       <c r="J95">
-        <v>40.8</v>
+        <v>40.26</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -7480,13 +7437,13 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>1.228013435059045</v>
+        <v>0.9348456267069077</v>
       </c>
       <c r="D96">
-        <v>1.979995965957642</v>
+        <v>1.945803165435791</v>
       </c>
       <c r="E96">
-        <v>45.84</v>
+        <v>46.98</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -7495,10 +7452,10 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>0.008735563802719117</v>
+        <v>0.008516356754302979</v>
       </c>
       <c r="J96">
-        <v>51.08</v>
+        <v>53.34</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -7509,13 +7466,13 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>1.225726808316609</v>
+        <v>0.9353429569295172</v>
       </c>
       <c r="D97">
-        <v>1.979990124702454</v>
+        <v>1.946310997009277</v>
       </c>
       <c r="E97">
-        <v>45.73</v>
+        <v>46.89</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -7524,10 +7481,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>0.01170407900810242</v>
+        <v>0.01187147130966187</v>
       </c>
       <c r="J97">
-        <v>40.76</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -7538,13 +7495,13 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>1.228102874826397</v>
+        <v>0.9365881963594426</v>
       </c>
       <c r="D98">
-        <v>1.98173463344574</v>
+        <v>1.943954229354858</v>
       </c>
       <c r="E98">
-        <v>45.92</v>
+        <v>46.87</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -7553,10 +7510,10 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>0.008731385135650634</v>
+        <v>0.008520850539207458</v>
       </c>
       <c r="J98">
-        <v>51.06</v>
+        <v>53.48</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -7567,13 +7524,13 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>1.226648191728535</v>
+        <v>0.9362356101972817</v>
       </c>
       <c r="D99">
-        <v>1.979301810264587</v>
+        <v>1.943907856941223</v>
       </c>
       <c r="E99">
-        <v>45.91</v>
+        <v>46.97</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -7582,10 +7539,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>0.01173937277793884</v>
+        <v>0.01192830805778503</v>
       </c>
       <c r="J99">
-        <v>40.6</v>
+        <v>40.14</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -7596,13 +7553,13 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>1.225073619001716</v>
+        <v>0.933065054684701</v>
       </c>
       <c r="D100">
-        <v>1.981173872947693</v>
+        <v>1.942250490188599</v>
       </c>
       <c r="E100">
-        <v>45.76</v>
+        <v>46.84999999999999</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -7611,28 +7568,13 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>0.008722112822532654</v>
+        <v>0.008505123472213745</v>
       </c>
       <c r="J100">
-        <v>51.16</v>
+        <v>53.34</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101">
-        <v>2</v>
-      </c>
-      <c r="B101">
-        <v>99</v>
-      </c>
-      <c r="C101">
-        <v>1.227427404307755</v>
-      </c>
-      <c r="D101">
-        <v>1.97917640209198</v>
-      </c>
-      <c r="E101">
-        <v>45.92</v>
-      </c>
       <c r="G101">
         <v>1</v>
       </c>
@@ -7640,28 +7582,13 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>0.01165682544708252</v>
+        <v>0.0119022355556488</v>
       </c>
       <c r="J101">
-        <v>40.52</v>
+        <v>40.26</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102">
-        <v>2</v>
-      </c>
-      <c r="B102">
-        <v>100</v>
-      </c>
-      <c r="C102">
-        <v>1.228097573539914</v>
-      </c>
-      <c r="D102">
-        <v>1.97986102104187</v>
-      </c>
-      <c r="E102">
-        <v>45.94</v>
-      </c>
       <c r="G102">
         <v>2</v>
       </c>
@@ -7669,28 +7596,13 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>0.008714454317092895</v>
+        <v>0.008561256623268128</v>
       </c>
       <c r="J102">
-        <v>51.28</v>
+        <v>53.22</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103">
-        <v>2</v>
-      </c>
-      <c r="B103">
-        <v>101</v>
-      </c>
-      <c r="C103">
-        <v>1.225804843140777</v>
-      </c>
-      <c r="D103">
-        <v>1.979905843734741</v>
-      </c>
-      <c r="E103">
-        <v>45.8</v>
-      </c>
       <c r="G103">
         <v>1</v>
       </c>
@@ -7698,10 +7610,10 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>0.01165323300361633</v>
+        <v>0.0118815908908844</v>
       </c>
       <c r="J103">
-        <v>40.48</v>
+        <v>40.34</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -7712,10 +7624,10 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>0.008710266184806824</v>
+        <v>0.008555702829360962</v>
       </c>
       <c r="J104">
-        <v>51.42</v>
+        <v>53.34</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -7726,10 +7638,10 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>0.01166686120033264</v>
+        <v>0.01183054430484772</v>
       </c>
       <c r="J105">
-        <v>40.64</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -7740,10 +7652,10 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>0.008709440207481385</v>
+        <v>0.008501411986351013</v>
       </c>
       <c r="J106">
-        <v>51.44</v>
+        <v>53.44</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -7754,10 +7666,10 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>0.01166361904144287</v>
+        <v>0.01181019716262817</v>
       </c>
       <c r="J107">
-        <v>40.36</v>
+        <v>40.38</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -7768,10 +7680,10 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>0.008722392702102661</v>
+        <v>0.008489138555526734</v>
       </c>
       <c r="J108">
-        <v>51.1</v>
+        <v>53.38</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -7782,10 +7694,10 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>0.0116361142873764</v>
+        <v>0.011840540599823</v>
       </c>
       <c r="J109">
-        <v>40.58</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -7796,10 +7708,10 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>0.008734592461585998</v>
+        <v>0.008508805894851685</v>
       </c>
       <c r="J110">
-        <v>51.02</v>
+        <v>53.38</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -7810,10 +7722,10 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>0.0116592022895813</v>
+        <v>0.01181462507247925</v>
       </c>
       <c r="J111">
-        <v>40.38</v>
+        <v>40.68</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -7824,10 +7736,10 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>0.008722614884376525</v>
+        <v>0.008527206373214722</v>
       </c>
       <c r="J112">
-        <v>51.16</v>
+        <v>53.36</v>
       </c>
     </row>
     <row r="113" spans="7:10">
@@ -7838,10 +7750,10 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>0.01165539560317993</v>
+        <v>0.01181792478561401</v>
       </c>
       <c r="J113">
-        <v>40.44</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="114" spans="7:10">
@@ -7852,10 +7764,10 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>0.008706008505821228</v>
+        <v>0.008505718731880187</v>
       </c>
       <c r="J114">
-        <v>51.14</v>
+        <v>53.56</v>
       </c>
     </row>
     <row r="115" spans="7:10">
@@ -7866,7 +7778,7 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>0.01164741454124451</v>
+        <v>0.01183126239776611</v>
       </c>
       <c r="J115">
         <v>40.42</v>
@@ -7880,10 +7792,10 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>0.008720548033714295</v>
+        <v>0.00850940179824829</v>
       </c>
       <c r="J116">
-        <v>51.06</v>
+        <v>53.08</v>
       </c>
     </row>
     <row r="117" spans="7:10">
@@ -7894,10 +7806,10 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>0.01165289018154144</v>
+        <v>0.01183349051475525</v>
       </c>
       <c r="J117">
-        <v>40.78</v>
+        <v>40.44</v>
       </c>
     </row>
     <row r="118" spans="7:10">
@@ -7908,10 +7820,10 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>0.008727551031112672</v>
+        <v>0.008492695236206054</v>
       </c>
       <c r="J118">
-        <v>51.08</v>
+        <v>53.48</v>
       </c>
     </row>
     <row r="119" spans="7:10">
@@ -7922,10 +7834,10 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>0.01165611000061035</v>
+        <v>0.01181778521537781</v>
       </c>
       <c r="J119">
-        <v>40.68</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="120" spans="7:10">
@@ -7936,10 +7848,10 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>0.008713118386268615</v>
+        <v>0.008492315006256104</v>
       </c>
       <c r="J120">
-        <v>51.16</v>
+        <v>53.38</v>
       </c>
     </row>
     <row r="121" spans="7:10">
@@ -7950,10 +7862,10 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>0.0116457718372345</v>
+        <v>0.01185350017547607</v>
       </c>
       <c r="J121">
-        <v>40.52</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="122" spans="7:10">
@@ -7964,10 +7876,10 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>0.008731151747703553</v>
+        <v>0.008496202826499939</v>
       </c>
       <c r="J122">
-        <v>51.06</v>
+        <v>53.48</v>
       </c>
     </row>
     <row r="123" spans="7:10">
@@ -7978,10 +7890,10 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>0.01168960876464844</v>
+        <v>0.01183072283267975</v>
       </c>
       <c r="J123">
-        <v>40.42</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="124" spans="7:10">
@@ -7992,10 +7904,10 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>0.008696778464317321</v>
+        <v>0.008514213037490845</v>
       </c>
       <c r="J124">
-        <v>51.36</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="125" spans="7:10">
@@ -8006,7 +7918,7 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>0.01163793168067932</v>
+        <v>0.01180510144233704</v>
       </c>
       <c r="J125">
         <v>40.62</v>
@@ -8020,10 +7932,10 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>0.008720805311203002</v>
+        <v>0.008507272434234618</v>
       </c>
       <c r="J126">
-        <v>51.02</v>
+        <v>53.46</v>
       </c>
     </row>
     <row r="127" spans="7:10">
@@ -8034,10 +7946,10 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>0.01167252669334412</v>
+        <v>0.01182083783149719</v>
       </c>
       <c r="J127">
-        <v>40.56</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="128" spans="7:10">
@@ -8048,10 +7960,10 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>0.008710533308982849</v>
+        <v>0.008504910731315613</v>
       </c>
       <c r="J128">
-        <v>51.06</v>
+        <v>53.54</v>
       </c>
     </row>
     <row r="129" spans="7:10">
@@ -8062,10 +7974,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>0.01168824977874756</v>
+        <v>0.01182374315261841</v>
       </c>
       <c r="J129">
-        <v>40.42</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -8076,10 +7988,10 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>0.008686965990066528</v>
+        <v>0.008508721494674682</v>
       </c>
       <c r="J130">
-        <v>51.54</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="131" spans="7:10">
@@ -8090,10 +8002,10 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>0.01169702730178833</v>
+        <v>0.01181761622428894</v>
       </c>
       <c r="J131">
-        <v>40.46</v>
+        <v>40.52</v>
       </c>
     </row>
     <row r="132" spans="7:10">
@@ -8104,10 +8016,10 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>0.008695691084861755</v>
+        <v>0.008510184144973756</v>
       </c>
       <c r="J132">
-        <v>51.42</v>
+        <v>53.52</v>
       </c>
     </row>
     <row r="133" spans="7:10">
@@ -8118,10 +8030,10 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>0.01166378893852234</v>
+        <v>0.0118081648349762</v>
       </c>
       <c r="J133">
-        <v>40.6</v>
+        <v>40.26</v>
       </c>
     </row>
     <row r="134" spans="7:10">
@@ -8132,10 +8044,10 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>0.008710148406028748</v>
+        <v>0.008510077643394471</v>
       </c>
       <c r="J134">
-        <v>51.36</v>
+        <v>53.44</v>
       </c>
     </row>
     <row r="135" spans="7:10">
@@ -8146,10 +8058,10 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>0.01169776105880737</v>
+        <v>0.01181929783821106</v>
       </c>
       <c r="J135">
-        <v>40.4</v>
+        <v>40.28</v>
       </c>
     </row>
     <row r="136" spans="7:10">
@@ -8160,10 +8072,10 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>0.008687212133407592</v>
+        <v>0.008488730001449585</v>
       </c>
       <c r="J136">
-        <v>51.4</v>
+        <v>53.32</v>
       </c>
     </row>
     <row r="137" spans="7:10">
@@ -8174,10 +8086,10 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>0.01166475114822388</v>
+        <v>0.011819220495224</v>
       </c>
       <c r="J137">
-        <v>40.82</v>
+        <v>40.54</v>
       </c>
     </row>
     <row r="138" spans="7:10">
@@ -8188,10 +8100,10 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>0.008708402013778687</v>
+        <v>0.00850450918674469</v>
       </c>
       <c r="J138">
-        <v>51.4</v>
+        <v>53.38</v>
       </c>
     </row>
     <row r="139" spans="7:10">
@@ -8202,10 +8114,10 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>0.01165273771286011</v>
+        <v>0.01181017665863037</v>
       </c>
       <c r="J139">
-        <v>40.6</v>
+        <v>40.32</v>
       </c>
     </row>
     <row r="140" spans="7:10">
@@ -8216,10 +8128,10 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>0.008715994477272034</v>
+        <v>0.008508104300498963</v>
       </c>
       <c r="J140">
-        <v>51.2</v>
+        <v>53.34</v>
       </c>
     </row>
     <row r="141" spans="7:10">
@@ -8230,10 +8142,10 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>0.01165607771873474</v>
+        <v>0.0118197286605835</v>
       </c>
       <c r="J141">
-        <v>40.46</v>
+        <v>40.44</v>
       </c>
     </row>
     <row r="142" spans="7:10">
@@ -8244,10 +8156,10 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>0.008705428838729858</v>
+        <v>0.008500718402862548</v>
       </c>
       <c r="J142">
-        <v>50.96</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="143" spans="7:10">
@@ -8258,10 +8170,10 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>0.01168834342956543</v>
+        <v>0.01180363850593567</v>
       </c>
       <c r="J143">
-        <v>40.3</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="144" spans="7:10">
@@ -8272,10 +8184,10 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>0.008690774679183959</v>
+        <v>0.00852941117286682</v>
       </c>
       <c r="J144">
-        <v>51.32</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="145" spans="7:10">
@@ -8286,10 +8198,10 @@
         <v>72</v>
       </c>
       <c r="I145">
-        <v>0.01167273836135864</v>
+        <v>0.01179639234542847</v>
       </c>
       <c r="J145">
-        <v>40.56</v>
+        <v>40.34</v>
       </c>
     </row>
     <row r="146" spans="7:10">
@@ -8300,10 +8212,10 @@
         <v>72</v>
       </c>
       <c r="I146">
-        <v>0.008698627066612244</v>
+        <v>0.008522155213356019</v>
       </c>
       <c r="J146">
-        <v>51.36</v>
+        <v>53.38</v>
       </c>
     </row>
     <row r="147" spans="7:10">
@@ -8314,10 +8226,10 @@
         <v>73</v>
       </c>
       <c r="I147">
-        <v>0.01169205298423767</v>
+        <v>0.01180788626670837</v>
       </c>
       <c r="J147">
-        <v>40.6</v>
+        <v>40.26</v>
       </c>
     </row>
     <row r="148" spans="7:10">
@@ -8328,10 +8240,10 @@
         <v>73</v>
       </c>
       <c r="I148">
-        <v>0.008690294551849366</v>
+        <v>0.008502700281143189</v>
       </c>
       <c r="J148">
-        <v>51.16</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="149" spans="7:10">
@@ -8342,10 +8254,10 @@
         <v>74</v>
       </c>
       <c r="I149">
-        <v>0.01166222529411316</v>
+        <v>0.01182253317832947</v>
       </c>
       <c r="J149">
-        <v>40.6</v>
+        <v>40.22</v>
       </c>
     </row>
     <row r="150" spans="7:10">
@@ -8356,10 +8268,10 @@
         <v>74</v>
       </c>
       <c r="I150">
-        <v>0.008708794045448304</v>
+        <v>0.008489738631248474</v>
       </c>
       <c r="J150">
-        <v>51.52</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="151" spans="7:10">
@@ -8370,10 +8282,10 @@
         <v>75</v>
       </c>
       <c r="I151">
-        <v>0.01163134107589722</v>
+        <v>0.0118172833442688</v>
       </c>
       <c r="J151">
-        <v>40.54</v>
+        <v>40.32</v>
       </c>
     </row>
     <row r="152" spans="7:10">
@@ -8384,10 +8296,10 @@
         <v>75</v>
       </c>
       <c r="I152">
-        <v>0.008718324518203735</v>
+        <v>0.008503170394897461</v>
       </c>
       <c r="J152">
-        <v>51.1</v>
+        <v>53.48</v>
       </c>
     </row>
     <row r="153" spans="7:10">
@@ -8398,10 +8310,10 @@
         <v>76</v>
       </c>
       <c r="I153">
-        <v>0.01167420468330383</v>
+        <v>0.01182367973327637</v>
       </c>
       <c r="J153">
-        <v>40.42</v>
+        <v>40.22</v>
       </c>
     </row>
     <row r="154" spans="7:10">
@@ -8412,10 +8324,10 @@
         <v>76</v>
       </c>
       <c r="I154">
-        <v>0.008704117417335511</v>
+        <v>0.008505630540847778</v>
       </c>
       <c r="J154">
-        <v>51.14</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="155" spans="7:10">
@@ -8426,7 +8338,7 @@
         <v>77</v>
       </c>
       <c r="I155">
-        <v>0.0116445286989212</v>
+        <v>0.01181068885326386</v>
       </c>
       <c r="J155">
         <v>40.52</v>
@@ -8440,10 +8352,10 @@
         <v>77</v>
       </c>
       <c r="I156">
-        <v>0.008722853589057923</v>
+        <v>0.008506061530113219</v>
       </c>
       <c r="J156">
-        <v>51.12</v>
+        <v>53.48</v>
       </c>
     </row>
     <row r="157" spans="7:10">
@@ -8454,10 +8366,10 @@
         <v>78</v>
       </c>
       <c r="I157">
-        <v>0.01166356673240662</v>
+        <v>0.01180914099216461</v>
       </c>
       <c r="J157">
-        <v>40.36</v>
+        <v>40.38</v>
       </c>
     </row>
     <row r="158" spans="7:10">
@@ -8468,10 +8380,10 @@
         <v>78</v>
       </c>
       <c r="I158">
-        <v>0.0087128977060318</v>
+        <v>0.008494838356971741</v>
       </c>
       <c r="J158">
-        <v>51.16</v>
+        <v>53.58</v>
       </c>
     </row>
     <row r="159" spans="7:10">
@@ -8482,7 +8394,7 @@
         <v>79</v>
       </c>
       <c r="I159">
-        <v>0.01169122068881989</v>
+        <v>0.01183054299354553</v>
       </c>
       <c r="J159">
         <v>40.62</v>
@@ -8496,10 +8408,10 @@
         <v>79</v>
       </c>
       <c r="I160">
-        <v>0.008701899433135986</v>
+        <v>0.008503957843780517</v>
       </c>
       <c r="J160">
-        <v>51.44</v>
+        <v>53.44</v>
       </c>
     </row>
     <row r="161" spans="7:10">
@@ -8510,10 +8422,10 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>0.01166429662704468</v>
+        <v>0.01181798119544983</v>
       </c>
       <c r="J161">
-        <v>40.46</v>
+        <v>40.32</v>
       </c>
     </row>
     <row r="162" spans="7:10">
@@ -8524,10 +8436,10 @@
         <v>80</v>
       </c>
       <c r="I162">
-        <v>0.00871175217628479</v>
+        <v>0.008516700816154479</v>
       </c>
       <c r="J162">
-        <v>51.36</v>
+        <v>53.58</v>
       </c>
     </row>
     <row r="163" spans="7:10">
@@ -8538,10 +8450,10 @@
         <v>81</v>
       </c>
       <c r="I163">
-        <v>0.01164521377086639</v>
+        <v>0.01181666717529297</v>
       </c>
       <c r="J163">
-        <v>40.58</v>
+        <v>40.72</v>
       </c>
     </row>
     <row r="164" spans="7:10">
@@ -8552,10 +8464,10 @@
         <v>81</v>
       </c>
       <c r="I164">
-        <v>0.008712496519088744</v>
+        <v>0.008501398706436156</v>
       </c>
       <c r="J164">
-        <v>51.54</v>
+        <v>53.66</v>
       </c>
     </row>
     <row r="165" spans="7:10">
@@ -8566,10 +8478,10 @@
         <v>82</v>
       </c>
       <c r="I165">
-        <v>0.0116525806427002</v>
+        <v>0.01178755674362183</v>
       </c>
       <c r="J165">
-        <v>40.58</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="166" spans="7:10">
@@ -8580,10 +8492,10 @@
         <v>82</v>
       </c>
       <c r="I166">
-        <v>0.008715107560157776</v>
+        <v>0.008516492700576783</v>
       </c>
       <c r="J166">
-        <v>51.32</v>
+        <v>53.36</v>
       </c>
     </row>
     <row r="167" spans="7:10">
@@ -8594,10 +8506,10 @@
         <v>83</v>
       </c>
       <c r="I167">
-        <v>0.01163118562698364</v>
+        <v>0.01181696248054504</v>
       </c>
       <c r="J167">
-        <v>40.7</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="168" spans="7:10">
@@ -8608,10 +8520,10 @@
         <v>83</v>
       </c>
       <c r="I168">
-        <v>0.008720671033859253</v>
+        <v>0.008505185794830322</v>
       </c>
       <c r="J168">
-        <v>51.2</v>
+        <v>53.64</v>
       </c>
     </row>
     <row r="169" spans="7:10">
@@ -8622,10 +8534,10 @@
         <v>84</v>
       </c>
       <c r="I169">
-        <v>0.0116556357383728</v>
+        <v>0.01181828207969665</v>
       </c>
       <c r="J169">
-        <v>40.54</v>
+        <v>40.26</v>
       </c>
     </row>
     <row r="170" spans="7:10">
@@ -8636,10 +8548,10 @@
         <v>84</v>
       </c>
       <c r="I170">
-        <v>0.008726058316230774</v>
+        <v>0.008503871488571168</v>
       </c>
       <c r="J170">
-        <v>51.16</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="171" spans="7:10">
@@ -8650,10 +8562,10 @@
         <v>85</v>
       </c>
       <c r="I171">
-        <v>0.01166223020553589</v>
+        <v>0.011824329662323</v>
       </c>
       <c r="J171">
-        <v>40.66</v>
+        <v>40.32</v>
       </c>
     </row>
     <row r="172" spans="7:10">
@@ -8664,10 +8576,10 @@
         <v>85</v>
       </c>
       <c r="I172">
-        <v>0.008701811051368713</v>
+        <v>0.008498449492454528</v>
       </c>
       <c r="J172">
-        <v>51.26</v>
+        <v>53.42</v>
       </c>
     </row>
     <row r="173" spans="7:10">
@@ -8678,10 +8590,10 @@
         <v>86</v>
       </c>
       <c r="I173">
-        <v>0.01168766312599182</v>
+        <v>0.01183895106315613</v>
       </c>
       <c r="J173">
-        <v>40.76</v>
+        <v>40.38</v>
       </c>
     </row>
     <row r="174" spans="7:10">
@@ -8692,10 +8604,10 @@
         <v>86</v>
       </c>
       <c r="I174">
-        <v>0.008706313395500183</v>
+        <v>0.008482053923606873</v>
       </c>
       <c r="J174">
-        <v>51.4</v>
+        <v>53.92</v>
       </c>
     </row>
     <row r="175" spans="7:10">
@@ -8706,10 +8618,10 @@
         <v>87</v>
       </c>
       <c r="I175">
-        <v>0.01165505292415619</v>
+        <v>0.01179458274841309</v>
       </c>
       <c r="J175">
-        <v>40.66</v>
+        <v>40.48</v>
       </c>
     </row>
     <row r="176" spans="7:10">
@@ -8720,10 +8632,10 @@
         <v>87</v>
       </c>
       <c r="I176">
-        <v>0.00871941533088684</v>
+        <v>0.008522698712348937</v>
       </c>
       <c r="J176">
-        <v>51.1</v>
+        <v>53.58</v>
       </c>
     </row>
     <row r="177" spans="7:10">
@@ -8734,10 +8646,10 @@
         <v>88</v>
       </c>
       <c r="I177">
-        <v>0.01165611190795898</v>
+        <v>0.01180793378353119</v>
       </c>
       <c r="J177">
-        <v>40.58</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="178" spans="7:10">
@@ -8748,10 +8660,10 @@
         <v>88</v>
       </c>
       <c r="I178">
-        <v>0.008711675047874451</v>
+        <v>0.008506072974205017</v>
       </c>
       <c r="J178">
-        <v>51.28</v>
+        <v>53.58</v>
       </c>
     </row>
     <row r="179" spans="7:10">
@@ -8762,10 +8674,10 @@
         <v>89</v>
       </c>
       <c r="I179">
-        <v>0.01166801838874817</v>
+        <v>0.01179509811401367</v>
       </c>
       <c r="J179">
-        <v>40.68</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="180" spans="7:10">
@@ -8776,10 +8688,10 @@
         <v>89</v>
       </c>
       <c r="I180">
-        <v>0.008691684508323669</v>
+        <v>0.008509436511993408</v>
       </c>
       <c r="J180">
-        <v>51.42</v>
+        <v>53.42</v>
       </c>
     </row>
     <row r="181" spans="7:10">
@@ -8790,10 +8702,10 @@
         <v>90</v>
       </c>
       <c r="I181">
-        <v>0.01165820465087891</v>
+        <v>0.01182272992134094</v>
       </c>
       <c r="J181">
-        <v>40.74</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="182" spans="7:10">
@@ -8804,10 +8716,10 @@
         <v>90</v>
       </c>
       <c r="I182">
-        <v>0.008718013143539429</v>
+        <v>0.008499176144599914</v>
       </c>
       <c r="J182">
-        <v>51.12</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="183" spans="7:10">
@@ -8818,10 +8730,10 @@
         <v>91</v>
       </c>
       <c r="I183">
-        <v>0.01168083758354187</v>
+        <v>0.01180896003246307</v>
       </c>
       <c r="J183">
-        <v>40.58</v>
+        <v>40.36</v>
       </c>
     </row>
     <row r="184" spans="7:10">
@@ -8832,10 +8744,10 @@
         <v>91</v>
       </c>
       <c r="I184">
-        <v>0.008709174561500549</v>
+        <v>0.008498726868629456</v>
       </c>
       <c r="J184">
-        <v>51.38</v>
+        <v>53.48</v>
       </c>
     </row>
     <row r="185" spans="7:10">
@@ -8846,10 +8758,10 @@
         <v>92</v>
       </c>
       <c r="I185">
-        <v>0.01164196863174439</v>
+        <v>0.011826513671875</v>
       </c>
       <c r="J185">
-        <v>40.8</v>
+        <v>40.24</v>
       </c>
     </row>
     <row r="186" spans="7:10">
@@ -8860,10 +8772,10 @@
         <v>92</v>
       </c>
       <c r="I186">
-        <v>0.008722430896759033</v>
+        <v>0.008480113410949707</v>
       </c>
       <c r="J186">
-        <v>51.02</v>
+        <v>53.64</v>
       </c>
     </row>
     <row r="187" spans="7:10">
@@ -8874,10 +8786,10 @@
         <v>93</v>
       </c>
       <c r="I187">
-        <v>0.01169485750198364</v>
+        <v>0.01179410638809204</v>
       </c>
       <c r="J187">
-        <v>40.76</v>
+        <v>40.52</v>
       </c>
     </row>
     <row r="188" spans="7:10">
@@ -8888,10 +8800,10 @@
         <v>93</v>
       </c>
       <c r="I188">
-        <v>0.008690466356277465</v>
+        <v>0.008517231392860413</v>
       </c>
       <c r="J188">
-        <v>51.8</v>
+        <v>53.54</v>
       </c>
     </row>
     <row r="189" spans="7:10">
@@ -8902,10 +8814,10 @@
         <v>94</v>
       </c>
       <c r="I189">
-        <v>0.01169880738258362</v>
+        <v>0.01181852769851685</v>
       </c>
       <c r="J189">
-        <v>40.32</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="190" spans="7:10">
@@ -8916,10 +8828,10 @@
         <v>94</v>
       </c>
       <c r="I190">
-        <v>0.008683903121948243</v>
+        <v>0.008502017378807068</v>
       </c>
       <c r="J190">
-        <v>51.36</v>
+        <v>53.56</v>
       </c>
     </row>
     <row r="191" spans="7:10">
@@ -8930,10 +8842,10 @@
         <v>95</v>
       </c>
       <c r="I191">
-        <v>0.01165335688591003</v>
+        <v>0.01182884836196899</v>
       </c>
       <c r="J191">
-        <v>40.32</v>
+        <v>40.28</v>
       </c>
     </row>
     <row r="192" spans="7:10">
@@ -8944,10 +8856,10 @@
         <v>95</v>
       </c>
       <c r="I192">
-        <v>0.008709526348114014</v>
+        <v>0.008490334916114808</v>
       </c>
       <c r="J192">
-        <v>51.14</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="193" spans="7:10">
@@ -8958,10 +8870,10 @@
         <v>96</v>
       </c>
       <c r="I193">
-        <v>0.01163832097053528</v>
+        <v>0.01183905735015869</v>
       </c>
       <c r="J193">
-        <v>40.52</v>
+        <v>40.12</v>
       </c>
     </row>
     <row r="194" spans="7:10">
@@ -8972,10 +8884,10 @@
         <v>96</v>
       </c>
       <c r="I194">
-        <v>0.008728321433067322</v>
+        <v>0.008485469269752502</v>
       </c>
       <c r="J194">
-        <v>51.32</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="195" spans="7:10">
@@ -8986,10 +8898,10 @@
         <v>97</v>
       </c>
       <c r="I195">
-        <v>0.01166485729217529</v>
+        <v>0.01181771969795227</v>
       </c>
       <c r="J195">
-        <v>40.54</v>
+        <v>40.48</v>
       </c>
     </row>
     <row r="196" spans="7:10">
@@ -9000,10 +8912,10 @@
         <v>97</v>
       </c>
       <c r="I196">
-        <v>0.008697039103507996</v>
+        <v>0.008507602977752686</v>
       </c>
       <c r="J196">
-        <v>51.28</v>
+        <v>53.46</v>
       </c>
     </row>
     <row r="197" spans="7:10">
@@ -9014,10 +8926,10 @@
         <v>98</v>
       </c>
       <c r="I197">
-        <v>0.01164909076690674</v>
+        <v>0.01181126275062561</v>
       </c>
       <c r="J197">
-        <v>40.62</v>
+        <v>40.26</v>
       </c>
     </row>
     <row r="198" spans="7:10">
@@ -9028,94 +8940,10 @@
         <v>98</v>
       </c>
       <c r="I198">
-        <v>0.008712997865676879</v>
+        <v>0.008485237336158753</v>
       </c>
       <c r="J198">
-        <v>50.9</v>
-      </c>
-    </row>
-    <row r="199" spans="7:10">
-      <c r="G199">
-        <v>1</v>
-      </c>
-      <c r="H199">
-        <v>99</v>
-      </c>
-      <c r="I199">
-        <v>0.01167993612289429</v>
-      </c>
-      <c r="J199">
-        <v>40.66</v>
-      </c>
-    </row>
-    <row r="200" spans="7:10">
-      <c r="G200">
-        <v>2</v>
-      </c>
-      <c r="H200">
-        <v>99</v>
-      </c>
-      <c r="I200">
-        <v>0.008703414607048035</v>
-      </c>
-      <c r="J200">
-        <v>51.18</v>
-      </c>
-    </row>
-    <row r="201" spans="7:10">
-      <c r="G201">
-        <v>1</v>
-      </c>
-      <c r="H201">
-        <v>100</v>
-      </c>
-      <c r="I201">
-        <v>0.01167193298339844</v>
-      </c>
-      <c r="J201">
-        <v>40.6</v>
-      </c>
-    </row>
-    <row r="202" spans="7:10">
-      <c r="G202">
-        <v>2</v>
-      </c>
-      <c r="H202">
-        <v>100</v>
-      </c>
-      <c r="I202">
-        <v>0.008700702691078185</v>
-      </c>
-      <c r="J202">
-        <v>51.28</v>
-      </c>
-    </row>
-    <row r="203" spans="7:10">
-      <c r="G203">
-        <v>1</v>
-      </c>
-      <c r="H203">
-        <v>101</v>
-      </c>
-      <c r="I203">
-        <v>0.01164079151153564</v>
-      </c>
-      <c r="J203">
-        <v>40.6</v>
-      </c>
-    </row>
-    <row r="204" spans="7:10">
-      <c r="G204">
-        <v>2</v>
-      </c>
-      <c r="H204">
-        <v>101</v>
-      </c>
-      <c r="I204">
-        <v>0.008721990537643432</v>
-      </c>
-      <c r="J204">
-        <v>51</v>
+        <v>53.44</v>
       </c>
     </row>
   </sheetData>
